--- a/news-data-excel.xlsx
+++ b/news-data-excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,20 +481,239 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>‘Don’t say trans’: Texas school board’s new policies spark an outcry</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Anne Branigin']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08-24-2022</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Listen 8 min Comment on this story Comment Gift Article Share
+In the early hours of Tuesday morning, after a “marathon” school board session featuring four hours of debate from parents, students and community members, the Grapevine-Colleyville Independent School District in North Texas narrowly passed a sweeping set of policies that includes a total ban on all classroom discussion of “gender fluidity.”
+The new rules also impose more limits on how race, gender and sexuality are taught; restrict which bathrooms transgender youths can use; and give greater power to the school board to determine which books are available in school libraries.
+Last year, state lawmakers passed a law limiting how race, slavery and history are taught in public schools. The district made national headlines then, too, after a Black principal was put on leave after being accused of teaching critical race theory.
+The new rules — which passed in a 4-3 vote — are indicative of how school boards have become the “epicenter” of efforts to push anti-inclusive policies, LGBTQ and civil rights advocates say. GCISD is among a “cluster” of districts moving to further restrict education in this way, according to Kate Huddleston, a staff attorney at the American Civil Liberties Union of Texas.
+Advertisement
+Story continues below advertisement
+The policies also go “far beyond” Texas law, Huddleston said: “As far as I know, this is the most extreme policy, particularly in terms of classroom censorship … of any district in Texas.”
+On Monday, GCISD board President Casey Ford said that the policies “are a reflection of Texas law and community values,” according to the Dallas Morning News. Ford said the changes came from “input from several groups,” including the board — which added two new conservative members in May — district lawyers, school administrators, community members and lawmakers, the outlet reported.
+The proposals were made available to the public only 72 hours before being voted on, according to the Texas Observer.
+Story continues below advertisement
+Rachel Hill, government affairs director for Equality Texas, an LGBTQ advocacy organization, called the new policies “a grab-bag of anti-LGBTQ+ discrimination and censorship policies.”
+Advertisement
+“They took a lot of the policies that were floating out there in the national district and combined them all in one place,” Hill said. “Not only are these policies harmful individually, but kids are facing the full brunt of all of them together.”
+The recent school board changes signal how anti-LGBTQ rhetoric and legislation, which have spiked across the country in the last couple of years, are winding their way into various communities, “impacting people’s everyday lives,” Hill added. “It’s important to remember that this could happen anywhere, even if you feel like your state policies are more affirming of LGBTQ people.”
+Story continues below advertisement
+Since 2021, conservative lawmakers have introduced hundreds of bills restricting the rights of LGBTQ people, with much of their attention focused on trans youths. Of this surge in legislation, only a fraction have been enacted into law. But those that have succeeded have seized national attention — alarming LGBTQ communities and advocates and spurring copycat proposals in other places.
+Advertisement
+One of the most notable examples is Florida’s Parental Rights in Education policy, referred to by its critics as the “don’t say gay” law. The bill, enacted this summer, bans “instruction” of gender and sexual identity until the third grade, and adds further restrictions through grade 12 for material that is not “age appropriate or developmentally appropriate.” Parents are able to sue schools if they believe the schools have violated these guidelines. (Last month, Florida’s largest school district, Miami-Dade County, narrowly rejected a previously approved sex-education textbook for middle and high schools on the grounds that it violated the law.)
+GCISD’s new policies echo the Florida law, barring discussion of gender and sexual identity until the sixth grade and enacting a total ban on talking about “gender fluidity” — which the district defines in part as any theory that “espouses the view that an individual’s biological sex should be changed to ‘match’ a self-believed gender that is different from the person’s biological sex.”
+Story continues below advertisement
+Critics of this policy have referred to it as the “don’t say trans” rule.
+Advertisement
+The policies also state that multiple-occupancy bathrooms or changing facilities “shall be designated for and used only by persons based on the person’s biological sex,” though it does allow schools to provide “reasonable accommodations upon request,” the Dallas Morning News reported.
+In addition, the school board gave itself a larger role in selecting books and barred “equity audits” — which collect data on schools’ cultural, socioeconomic and racial dynamics.
+Teachers are also no longer required to use the pronouns used by trans, nonbinary and gender-nonconforming children, even if a parent or guardians have asked them to do so.
+Story continues below advertisement
+Hill, of Equality Texas, called this part of the new rules particularly hypocritical: “This isn’t about respecting all students or respecting all parents and families. It’s about one particular parent voice. … It’s about anti-LGBTQ policies.”
+Advertisement
+A passionate debate preceded the vote and featured almost 200 speakers, each of whom had been given a time limit of 60 seconds, according to the Fort Worth Star-Telegram.
+“We have seen the overt, nefarious infiltration of social and cultural propaganda in the curriculum, none more damaging to young minds and bodies than the madness of so-called gender fluidity ideology,” said GCISD board member Tammy Nakamura, in a video shared by a local NBC News station.
+Story continues below advertisement
+Julie McCarty, chief executive of the True Texas Project, a right-wing advocacy group that has touted extremist messaging, said the policy gave parents a voice in their children’s education, and that parents in other districts in the state were taking note of the board’s actions, per the Star-Telegram.
+Opponents of the new policies told the trustees the policies would erase LGBTQ people — and may even endanger students’ lives.
+Advertisement
+“You can talk about Santa Claus, but you can’t talk about gay people to fifth-graders,” said Mike Sexton, whose children go to GCISD schools, according to the Texas Tribune. “This is incredible — you’re acting like people don’t exist.”
+Story continues below advertisement
+“Are you ready to be responsible for even one child taking their life?” a former GCISD high school student asked. “With these new policies you will alienate them even more from getting help, so they feel that suicide is their only escape.”
+The student, who identifies as LGBTQ, transferred to another district this year because of “the culture of fear” school officials have created, the Texas Observer reported.
+A recent survey from the Centers for Disease Control and Prevention found that nearly half of gay, lesbian and bisexual teens said they contemplated suicide during the pandemic, compared with 14 percent of their straight, cisgender peers. Research suggests that number is even higher for young trans people.
+Advertisement
+Story continues below advertisement
+Huddleston, the ACLU of Texas attorney, said the new policies violate students’ First Amendment rights, as well as federal anti-discrimination laws.
+“All options are on the table” when it comes to challenging the policies, said Huddleston: “We are extremely concerned and evaluating the policy as passed.”
+The high-profile battle over the new policies highlights how much political energy — and money — have shifted toward small, hyperlocal venues like school boards.
+GCISD is a relatively small district — covering 21 schools and around 14,000 students, half of whom are racial minorities. Still, its recent school board election, which resulted in two new conservative board members, attracted a spike in political donations, according to NBC News.
+Among the donors was the Patriot Mobile, which bills itself as “America’s only Christian conservative wireless provider.” (According to multiple reports, Patriot Mobile was a prominent presence at this week’s board meeting and had set up tents for the overflow of attendees.)
+“This is all political,” said Jorge Rodríguez, a trustee who voted against the policies. “These board meetings have just become headquarters for political campaigns instead of focusing on what we are here to do, which is to help students succeed.”
+GiftOutline Gift Article</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>The new rules — which passed in a 4-3 vote — are indicative of how school boards have become the “epicenter” of efforts to push anti-inclusive policies, LGBTQ and civil rights advocates say.
+The proposals were made available to the public only 72 hours before being voted on, according to the Texas Observer.
+In addition, the school board gave itself a larger role in selecting books and barred “equity audits” — which collect data on schools’ cultural, socioeconomic and racial dynamics.
+Opponents of the new policies told the trustees the policies would erase LGBTQ people — and may even endanger students’ lives.
+Still, its recent school board election, which resulted in two new conservative board members, attracted a spike in political donations, according to NBC News.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['boards', 'district', 'continues', 'trans', 'policies', 'dont', 'outcry', 'school', 'say', 'spark', 'gender', 'board', 'according', 'schools', 'lgbtq', 'texas']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.washingtonpost.com/nation/2022/08/24/texas-school-dont-say-trans/</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>www.washingtonpost.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A Mich. library refused to remove an LGBTQ book. The town defunded it.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Danielle Paquette']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>08-24-2022</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Listen 11 min Comment on this story Comment Gift Article Share
+JAMESTOWN, Mich. — Two librarians had quit since the trouble began, and Kaitlin McLaughlin didn’t want to be the third. But the same term kept coming up in board meetings and on yard signs, making her feel awkward and wrongly accused: grooming. Wp Get the full experience. Choose your plan ArrowRight People in this western Michigan farming town said the Patmos Library was “grooming” children and, according to fliers that one group printed, promoting an “LGBTQ ideology.” They said bookshelves meant for young readers featured same-sex pornography. They called the staff pedophiles, McLaughlin said. Then one August morning, they voted to defund Jamestown’s only public library, jeopardizing the institution’s future as neighbors clashed over who gets to decide free speech in this deep-red corner of America.
+Story continues below advertisement
+“I’m not a ‘groomer,’ ” said McLaughlin, 34, gathering children’s books for a lunchtime story hour. “I’m not a pedophile. I’m afraid of what people see when they look at me.”
+Advertisement
+The vitriol in Jamestown spiked with the rise of groups campaigning across the United States to banish texts with LGBTQ characters, accusing authors, teachers and librarians of trying to brainwash the nation’s youth. The American Library Association said it counted an “unprecedented” number of book ban attempts in 2021, noting that most of the titles dealt with sexual orientation, gender identity or racism.
+Americans have long sought to censor literature — “Uncle Tom’s Cabin” was an 1852 target for its anti-slavery message — but debates over transgender rights and critical race theory have lately spawned aggressive grass-roots movements to control the worldviews shared with children.
+Story continues below advertisement
+Which is how a railroad-themed library on the site of an early 20th-century train station lost the financial support of its community. Which is why the staff — three librarians, down from the usual roster of five — are mulling which activities they might have to slash (puppet shows? craft-ernoons?) and how long the lights can stay on.
+Advertisement
+“The loss would be enormous,” said McLaughlin, the youth services librarian. “We have something for every single person — from every walk of life.”
+Jamestown, with a population of nearly 10,000, has Christian conservative roots. Dutch last names are common — a legacy of the Calvinists who split from the Netherlands in the mid-1800s to settle here and practice a stricter form of Christianity. The county celebrates this heritage each spring with a tulip festival.
+The 22-year-old library hosts birthday parties, bridal showers, HOA meetings and blood drives. Residents praised it as a haven for all ages until controversy ignited with an award for the best teen books.
+Story continues below advertisement
+The National Library Association’s young adult branch named 10 winners in 2020, including a post-apocalyptic thriller about a boy searching for his lost dog, a science-fiction horror about twins with superpowers and a memoir about growing up nonbinary called “Gender Queer.”
+Advertisement
+Amber McLain, the library’s director at the time, ordered a copy of each. Pink-haired and openly queer, the 30-year-old stood out in a county that hadn’t backed a Democrat for president since 1864. Yet people embraced McLain, her former colleagues and patrons said.
+“She helped bring my son out of his shell,” said one mother, Sara Crockett, checking out a STEM toy kit on a recent afternoon. “He’d light up when he saw her.”
+Story continues below advertisement
+“I miss Miss Amber,” 5-year-old Cecil said, clutching her hand.
+Nobody complained about McLain until last November, after video of a Virginia mother condemning “Gender Queer” as “pornographic” took off on social media and protests against the memoir spread nationwide.
+The 239-page graphic novel contains illustrations of masturbation, a sex toy and oral sex, as well as depictions of menstrual blood. Fans saw the scenes as part of the author’s coming-of-age experience, while critics blasted them as sabotage to developing minds. “Gender Queer” became the most banned book of 2021.
+Advertisement
+Some parents found a copy in the Patmos Library and created a Facebook group called “Jamestown Conservatives” pushing for its removal. One of the organizers, Lauren Nykamp, declined to be interviewed but responded to some of The Washington Post’s questions over text. “This is not about LGBTQ material,” she said. “It is about sexualized material.”
+One resident posted on the Facebook page: “These pictures cannot be unseen and they are dangerous and disturbing!”
+Story continues below advertisement
+Another wrote that a “Marxist lesbian” led the National Library Association, adding that “this shows the mindset of those we are up against.”
+Several appeared at board meetings, railing against “Gender Queer” and McLain. One grandfather told her that “God designed the original plumbing,” that marriage should stay between a man and a woman, and that exposing children to content outside of those bounds could lead to suicide, pedophilia and human trafficking.
+“I know we live in a nation where you can have your right to your lifestyle, and that is fine,” he said, according to audio of a meeting last November, “but we don’t need to push it on our kids.”
+McLain countered that 90 out of their roughly 67,000 books had an LGBTQ keyword. She said they spent the most money on Christian fiction.
+Advertisement
+Story continues below advertisement
+Nykamp, the Jamestown Conservative organizer, was also there, lambasting “Gender Queer” as pornographic.
+“On Page 135, I can see a middle-aged man with an erection touching another young man’s erection,” she told the room. “Possibly a man younger than 18.”
+The township supervisor, Laurie Van Haitsma, sided with Nykamp.
+“It’s graphic as you can be,” she said. “I would not want my children and grandchildren seeing it.”
+A lawyer had reviewed the book and determined it wasn’t pornographic, McLain replied. Still, given the mature content, she’d initially placed it in the adult section — near novels with heterosexual sex scenes. As the objections mounted, though, she moved “Gender Queer” behind the counter, making it available only upon request.
+Story continues below advertisement
+“We have to represent every segment of the population,” McLain said, “not just the vast majority.”
+Advertisement
+The backlash grew from there. One March day, staffers said, a woman showed up at the library, recording a video and yelling: “Where is she? Where is the pink-haired freak? Where is the pedophile librarian?”
+McLain hadn’t been there. The library board president told her about the incident, saying she could work remotely if she’d like. (McLain declined to be interviewed for this story but confirmed the sequence of events to The Post.) Citing harassment, she opted to quit.
+So did her replacement, Matthew Lawrence, 25, who transferred to a library in another town — he doesn’t feel comfortable saying where — after a tense encounter in June. A patron had demanded to know if he was gay, he said, and insisted he remove a rainbow-hued sign that said: “Please use the other door.”
+Story continues below advertisement
+The environment had grown hostile, Lawrence said, but seeing the local official join the protest against “Gender Queer” ultimately motivated him to leave.
+Advertisement
+“The complaint is that kids are going to pick it up and see things they can’t unsee,” he said. “The easiest way to avoid that is to parent your children.”
+The battle was brewing at a pivotal moment: Every 10 years, Jamestown voted on renewing the Patmos Library’s public funding, the bulk of its budget, and the next decision was slated for August. This time around, the library had proposed a slight increase. Board members estimated that the annual bill for the average household would rise to $20.
+The Jamestown Conservatives responded with fliers saying that the library peddled “LGBTQ CONTENT” and “PORNOGRAPHIC MATERIALS” and that the community must address “these evils.” Up went yard signs against approving tax dollars to “GROOM our kids.”
+“If you think your child needs to have sexual books, on either side of sexuality, then you should pick it up at the store and share it at home,” said Jodi Buchanan, 58, a Christian thrift shop volunteer who applauded her neighbor’s “GROOM” sign.
+Advertisement
+Buchanan said she voted against the funding renewal to send a message, doubting that the Patmos Library would actually be forced to shutter.
+“That’s a threat to the community,” she said.
+On Election Day in August, about a third of the town’s voters turned out. A slim majority chose to defund the library.
+“You want to defund the freaking library?” asked Chavala Ymker, 23, a nonprofit farmworker who grew up behind the building.
+As a home-schooled teenager, Ymker, who uses they/them pronouns, said they’d wander over and dig into a series about World War II or a paper house-building guide or an Amish romance novel — their “spiciest” indulgence.
+“When I was stressed or anxious, I’d go there to relax,” Ymker said. “It always felt like a safe and welcoming place.”
+Any theme could be seen as threatening, so McLaughlin decided the safest bet for her recent story hour was “cats.”
+It had been nine days since the vote, and the librarian told herself to stay strong for the children. A Christian, she’d started the morning with a plea to God: Please let people see that my co-workers and I aren’t here to groom anyone for any causes.
+At first, she thought the term was silly — grooming — and associated it with her boyfriend’s family golden retriever. Gradually, it came to haunt her. Parents remained polite to her, but what if they harbored doubts about her intentions?
+“How are you today?” McLaughlin asked a mom and daughter on a bench outside, where she liked to read when the weather was nice. “I’m going to be reading about cats.”
+“Oh! I love cats!” a 9-year-old girl with blonde pigtails replied.
+“I’m going to start with a silly book called ‘Stack the Cats,’ ” McLaughlin said.
+Two other moms perched in the shade. Three little boys crowded at their feet. Yellow daffodils swayed in the breeze.
+“One cat sleeps. Two cats play,” McLaughlin read in a singsong voice. “Three cats! What do you do with three cats?”
+The children stared.
+“You stack them!”
+McLaughlin yearned for the critics to see what really went on here. She told patrons that her only agenda was promoting literacy. She made $16.25 an hour and supplemented her income with shifts at a senior home. It was enough to cobble together a decent living, but McLaughlin — who’d lost her job for two months during the pandemic — wondered if she should be looking for a more stable paycheck.
+Patmos Library had enough money to stay open until late next year, and the board had scrambled to get the funding issue back on the November ballot, hoping they could change the town’s mind before the midterm elections.
+One resident, meanwhile, started a GoFundMe to cover financial gaps. It had already raised $146,000 — about $100,000 shy of the library’s yearly budget.
+The support touched McLaughlin, but quietly, she feared for her safety. If people truly thought they were grooming children, harassment could fester into something worse.
+The librarian wasn’t sure what to do, so she just kept reading.
+“Two cats hide and two cats seek,” McLaughlin intoned to her story hour audience. “And four cats stack!”
+GiftOutline Gift Article</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>“Gender Queer” became the most banned book of 2021.
+AdvertisementStory continues below advertisementNykamp, the Jamestown Conservative organizer, was also there, lambasting “Gender Queer” as pornographic.
+As the objections mounted, though, she moved “Gender Queer” behind the counter, making it available only upon request.
+“I’m going to start with a silly book called ‘Stack the Cats,’ ” McLaughlin said.
+“Two cats hide and two cats seek,” McLaughlin intoned to her story hour audience.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['continues', 'book', 'mclain', 'library', 'refused', 'mclaughlin', 'defunded', 'remove', 'town', 'mich', 'queer', 'children', 'told', 'gender', 'cats', 'lgbtq']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.washingtonpost.com/nation/2022/08/24/michigan-library-defunded-gender-queer/</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>www.washingtonpost.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Student loan sites crash after Biden’s debt relief announcement</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>['Bryan Pietsch']</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>08-24-2022</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Listen 3 min Comment on this story Comment Gift Article Share
 Curious borrowers crashed the Education Department’s Federal Student Aid website and jammed up the website and phone lines of Nelnet, one of the main federal loan service providers, on Wednesday following President Biden’s announcement about student loan forgiveness. Wp Get the full experience. Choose your plan ArrowRight Biden to cancel up to $10,000 in student loans, $20K for Pell recipients The website StudentAid.gov — which hosts a page explaining the details of Biden’s plan — was still “experiencing high volumes of visitors” late Wednesday, a virtual waiting room to enter the site’s homepage said. Outages spiked around 2 p.m., according to Downdetector, which tracks outages. (Once through the waiting room, a banner on the homepage read: “A lot of people are interested in our website. As a result, some pages may take longer to display than usual.”)
@@ -513,7 +732,7 @@
 GiftOutline Gift Article</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Listen 3 min Comment on this story Comment Gift Article ShareCurious borrowers crashed the Education Department’s Federal Student Aid website and jammed up the website and phone lines of Nelnet, one of the main federal loan service providers, on Wednesday following President Biden’s announcement about student loan forgiveness.
 The Department of Education determines eligibility.”My student loan servicer is not having a great time today I see.
@@ -522,162 +741,14 @@
 National video reporter Hannah Jewell explains what you need to know about the Biden administration’s plan to forgive some federal student loans.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['relief', 'debt', 'sites', 'loan', 'biden', 'federal', 'plan', 'student', 'website', 'borrowers', 'crash', 'nelnet', 'outages', 'according', 'bidens', 'announcement']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['announcement', 'outages', 'website', 'plan', 'borrowers', 'sites', 'federal', 'bidens', 'nelnet', 'according', 'student', 'loan', 'relief', 'debt', 'biden', 'crash']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://www.washingtonpost.com/education/2022/08/25/nelnet-fafsa-down-biden-student-loan-forgiveness/</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>www.washingtonpost.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cruz attacks Ketanji Brown Jackson for ‘critical race theory’ — but sends his own daughters to learn it - The Washington Post</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['Dana Milbank']</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>08-24-2022</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Listen 5 min Comment on this story Comment Gift Article Share
-Sen. Ted Cruz seldom overlooks a chance to be underhanded, and, sure enough, the Texas Republican led the effort to imbue this week’s Supreme Court confirmation hearings with the latest effort by the right to make White America fear Black America. Sign up for a weekly roundup of thought-provoking ideas and debates ArrowRight Cruz attempted to tie Ketanji Brown Jackson, the first Black woman nominated to the high court, to the supposed menace of “critical race theory” — because, he said, this theory is taught at the private school where she serves on the board (and where she sent her daughters).
-“If you look at the Georgetown Day School’s curriculum, it is filled and overflowing with critical race theory,” Cruz alleged, holding up books he said the school has on reading lists, including “Stamped (for Kids): Racism, Antiracism and You,” by Ibram X. Kendi and Jason Reynolds. “It is an astonishing book,” charged Cruz, who had found it “offensive” that President Biden had promised to nominate a Black woman to the court. “On Page 33, it asks the question, ‘Can we send White people back to Europe?’ … Are you comfortable with these ideas being taught to children as young as 4?”
-Advertisement
-Story continues below advertisement
-Georgetown Day School, in the nation’s capital, does indeed take a strong “anti-racism” approach. So does St. John’s School, the private school in Houston where, as the New Republic’s Timothy Noah noted, Cruz sends his daughters.
-As the headmaster and chair of the board of trustees at St. John’s put it in 2020: “Black lives matter. … St. John’s, as an institution, must be anti-racist and eliminate racism of any type — including institutional racism. ”
-Follow Dana Milbank 's opinions Follow Add
-To its credit, the school has vowed to continue to “ensure that diversity, equity and inclusion are foundational aspects of our educational program,” and to “incorporate cultural proficiency, diversity, global awareness, and inclusivity into all facets of the K-12 curricula.”
-Story continues below advertisement
-Advertisement
-And there in the St. John’s library catalog is — wait for it — Kendi’s “Stamped (for Kids),” the very book Cruz demanded Jackson account for at Georgetown Day School. Cruz’s office didn’t respond to a request for comment.
-Hypocrisy is in bountiful supply before the Senate Judiciary Committee this week. Sen. Josh Hawley (R-Mo.), for example, has led an attack on Jackson for being soft on pedophiles, though he had no problem approving Trump nominees who, like Jackson (and most judges), sentenced certain child-pornography offenders to below-guideline prison terms.
-Story continues below advertisement
-But Cruz has a particular skill for saying one thing and doing another. He repeatedly criticized other officials for vacationing during crises — then hopped a plane to Cancún to avoid a devastating winter storm in Texas. Now, Cruz (fresh from an altercation with airline officials in Montana during which security had to be called) scolds the “disgraceful behavior” of Democrats on the Judiciary Committee — while constantly interrupting, hectoring and sneering.
-Advertisement
-Cruz apparently was untroubled that Virginia Gov. Glenn Youngkin, a Republican critic of critical race theory, sat on the board of National Cathedral School which, like GDS, has an active anti-racism program; Cruz endorsed Youngkin in the primary.
-But Jackson’s status as a member of the board of GDS got the full Cruz treatment, with posters and books for props on the dais. He mocked Kendi’s “Antiracist Baby,” which he said is taught at GDS, demanding of Jackson: “Do you agree with this book that is being taught with kids [at GDS] that the babies are racist?”
-But at his own daughters’ school, the chair of the school’s committee on “diversity, equity, inclusion and belonging” speaks about teaching faculty and parents about “antiracism.” The school, she said, was also contemplating an educational series on “cultural competency, race thought and inclusion.”
-Advertisement
-Story continues below advertisement
-The school’s inclusion is not just about race: The school held a “Banned Books Week” that highlighted offerings about gender identity, LGBTQ issues and sex education that are now under fire from social conservatives.
-During the racial-justice protests of 2020, the St. John’s headmaster recommended as a “resource” to the school community Beverly Daniel Tatum, identified by the right-wing outlet Federalist as a “critical race theory (CRT) activist” and “author of several left-wing manifestos on race relations.”
-Cruz, in his attack on Jackson, also scolded her for once referencing the “provocative thesis” of Nikole Hannah-Jones, creator of the 1619 Project. Cruz said the work, “closely intertwined” with critical race theory, had been “thoroughly refuted.” He demanded of Jackson: “Do you agree with Ms. Hannah-Jones?”
-Maybe Cruz should ask his kids’ school that question. Among the offerings in the St. John’s library, along with “How to be an Anti-Racist” and three other volumes by Kendi, is “The 1619 Project.”
-GiftOutline Gift Article</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>So does St. John’s School, the private school in Houston where, as the New Republic’s Timothy Noah noted, Cruz sends his daughters.
-As the headmaster and chair of the board of trustees at St. John’s put it in 2020: “Black lives matter.
-… St. John’s, as an institution, must be anti-racist and eliminate racism of any type — including institutional racism.
-Cruz said the work, “closely intertwined” with critical race theory, had been “thoroughly refuted.” He demanded of Jackson: “Do you agree with Ms. Hannah-Jones?”Maybe Cruz should ask his kids’ school that question.
-Among the offerings in the St. John’s library, along with “How to be an Anti-Racist” and three other volumes by Kendi, is “The 1619 Project.”GiftOutline Gift Article</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['ketanji', 'post', 'washington', 'learn', 'jackson', 'st', 'school', 'sends', 'johns', 'critical', 'kids', 'race', 'theory', 'daughters', 'cruz', 'taught']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://www.washingtonpost.com/opinions/2022/03/23/cruz-jackson-hearing-critical-race-theory-school/</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>www.washingtonpost.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cruz attacks Ketanji Brown Jackson for ‘critical race theory’ — but sends his own daughters to learn it - The Washington Post</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['Dana Milbank']</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>08-25-2022</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Listen 5 min Comment on this story Comment Gift Article Share
-Sen. Ted Cruz seldom overlooks a chance to be underhanded, and, sure enough, the Texas Republican led the effort to imbue this week’s Supreme Court confirmation hearings with the latest effort by the right to make White America fear Black America. Sign up for a weekly roundup of thought-provoking ideas and debates ArrowRight Cruz attempted to tie Ketanji Brown Jackson, the first Black woman nominated to the high court, to the supposed menace of “critical race theory” — because, he said, this theory is taught at the private school where she serves on the board (and where she sent her daughters).
-“If you look at the Georgetown Day School’s curriculum, it is filled and overflowing with critical race theory,” Cruz alleged, holding up books he said the school has on reading lists, including “Stamped (for Kids): Racism, Antiracism and You,” by Ibram X. Kendi and Jason Reynolds. “It is an astonishing book,” charged Cruz, who had found it “offensive” that President Biden had promised to nominate a Black woman to the court. “On Page 33, it asks the question, ‘Can we send White people back to Europe?’ … Are you comfortable with these ideas being taught to children as young as 4?”
-Advertisement
-Story continues below advertisement
-Georgetown Day School, in the nation’s capital, does indeed take a strong “anti-racism” approach. So does St. John’s School, the private school in Houston where, as the New Republic’s Timothy Noah noted, Cruz sends his daughters.
-As the headmaster and chair of the board of trustees at St. John’s put it in 2020: “Black lives matter. … St. John’s, as an institution, must be anti-racist and eliminate racism of any type — including institutional racism. ”
-Follow Dana Milbank 's opinions Follow Add
-To its credit, the school has vowed to continue to “ensure that diversity, equity and inclusion are foundational aspects of our educational program,” and to “incorporate cultural proficiency, diversity, global awareness, and inclusivity into all facets of the K-12 curricula.”
-Story continues below advertisement
-Advertisement
-And there in the St. John’s library catalog is — wait for it — Kendi’s “Stamped (for Kids),” the very book Cruz demanded Jackson account for at Georgetown Day School. Cruz’s office didn’t respond to a request for comment.
-Hypocrisy is in bountiful supply before the Senate Judiciary Committee this week. Sen. Josh Hawley (R-Mo.), for example, has led an attack on Jackson for being soft on pedophiles, though he had no problem approving Trump nominees who, like Jackson (and most judges), sentenced certain child-pornography offenders to below-guideline prison terms.
-Story continues below advertisement
-But Cruz has a particular skill for saying one thing and doing another. He repeatedly criticized other officials for vacationing during crises — then hopped a plane to Cancún to avoid a devastating winter storm in Texas. Now, Cruz (fresh from an altercation with airline officials in Montana during which security had to be called) scolds the “disgraceful behavior” of Democrats on the Judiciary Committee — while constantly interrupting, hectoring and sneering.
-Advertisement
-Cruz apparently was untroubled that Virginia Gov. Glenn Youngkin, a Republican critic of critical race theory, sat on the board of National Cathedral School which, like GDS, has an active anti-racism program; Cruz endorsed Youngkin in the primary.
-But Jackson’s status as a member of the board of GDS got the full Cruz treatment, with posters and books for props on the dais. He mocked Kendi’s “Antiracist Baby,” which he said is taught at GDS, demanding of Jackson: “Do you agree with this book that is being taught with kids [at GDS] that the babies are racist?”
-But at his own daughters’ school, the chair of the school’s committee on “diversity, equity, inclusion and belonging” speaks about teaching faculty and parents about “antiracism.” The school, she said, was also contemplating an educational series on “cultural competency, race thought and inclusion.”
-Advertisement
-Story continues below advertisement
-The school’s inclusion is not just about race: The school held a “Banned Books Week” that highlighted offerings about gender identity, LGBTQ issues and sex education that are now under fire from social conservatives.
-During the racial-justice protests of 2020, the St. John’s headmaster recommended as a “resource” to the school community Beverly Daniel Tatum, identified by the right-wing outlet Federalist as a “critical race theory (CRT) activist” and “author of several left-wing manifestos on race relations.”
-Cruz, in his attack on Jackson, also scolded her for once referencing the “provocative thesis” of Nikole Hannah-Jones, creator of the 1619 Project. Cruz said the work, “closely intertwined” with critical race theory, had been “thoroughly refuted.” He demanded of Jackson: “Do you agree with Ms. Hannah-Jones?”
-Maybe Cruz should ask his kids’ school that question. Among the offerings in the St. John’s library, along with “How to be an Anti-Racist” and three other volumes by Kendi, is “The 1619 Project.”
-GiftOutline Gift Article</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>So does St. John’s School, the private school in Houston where, as the New Republic’s Timothy Noah noted, Cruz sends his daughters.
-As the headmaster and chair of the board of trustees at St. John’s put it in 2020: “Black lives matter.
-… St. John’s, as an institution, must be anti-racist and eliminate racism of any type — including institutional racism.
-Cruz said the work, “closely intertwined” with critical race theory, had been “thoroughly refuted.” He demanded of Jackson: “Do you agree with Ms. Hannah-Jones?”Maybe Cruz should ask his kids’ school that question.
-Among the offerings in the St. John’s library, along with “How to be an Anti-Racist” and three other volumes by Kendi, is “The 1619 Project.”GiftOutline Gift Article</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['ketanji', 'post', 'washington', 'learn', 'jackson', 'st', 'school', 'sends', 'johns', 'critical', 'kids', 'race', 'theory', 'daughters', 'cruz', 'taught']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://www.washingtonpost.com/opinions/2022/03/23/cruz-jackson-hearing-critical-race-theory-school/</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -692,70 +763,61 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Controversial Hogan plan for Beltway, I-270 toll lanes gets green light</t>
+          <t>The blueprint for GOP victory in November - The Washington Post</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Ian Duncan']</t>
+          <t>['Hugh Hewitt', 'Contributing Columnist']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08-25-2022</t>
+          <t>08-24-2022</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Listen 6 min Comment on this story Comment Gift Article Share
-Federal authorities issued their final environmental approval Thursday for Maryland Gov. Larry Hogan’s project to widen parts of the Beltway and Interstate 270, delivering a major milestone for an infrastructure project estimated to cost about $5 billion. Wp Get the full experience. Choose your plan ArrowRight The step is a requirement for the project to receive federal funds, and it opens the way for Maryland to sign a 50-year contract to build and manage toll lanes along the congested highways. It also begins a five-month clock for opponents of the project to file legal challenges.
-“This interstate project will address one of the worst traffic bottlenecks in the country, create more jobs and opportunities, and expand bike, transit and pedestrian infrastructure,” Hogan (R) said in a statement. “It is exactly the kind of bold and forward-thinking solution that Marylanders have been crying out for, for years if not decades.”
-The highway project is one of Hogan’s signature transportation initiatives, and the term-limited governor has been racing to lock it in before he leaves office in January. Backers say adding two toll lanes in each direction on sections of the Beltway and I-270 will alleviate traffic that makes commuting around the Washington region a misery for many drivers.
-Advertisement
-Story continues below advertisement
-But in the face of worsening climate change, transit advocates and some local officials have questioned funding a gigantic project to accommodate more cars.
-“We’re not going to fix the region’s traffic problems by widening highways, ignoring climate change and signing over control of critical transportation infrastructure to a foreign corporation for the next 50 years,” Josh Tulkin, director of the Maryland Sierra Club, said after the decision was released. Tulkin said the Sierra Club will be “considering our legal options.”
-The approval documents commitments that the Maryland Department of Transportation has made to fund transit as part of the project. The contracting group with which the state intends to partner would provide $300 million for transit in Montgomery County over the life of the project. The state transportation department would build a new facility and provide a fleet of buses, and allocate a further $60 million to design transit projects in the county.
-Advertisement
-Story continues below advertisement
-The approval, known as a record of decision, says easing congestion on the highways should also make it easier for people to reach park-and-ride lots and Metro stations in the area.
-The Washington region, the document says, is the most congested part of the nation, and Maryland commuters on average have the second-longest trips to work. “Congestion has plagued the National Capital Region for decades,” it notes.
-Officials at the Federal Highway Administration (FHWA) had said earlier this month that they needed additional time to review the project’s environmental impact studies. They missed an Aug. 5 target date for issuing their final sign-off.
-Story continues below advertisement
-Hogan wrote to the federal government criticizing the holdup, arguing that the delay appeared to be politically motivated and that Maryland could take legal action. Despite now having secured the approval, Hogan said he had applied for federal grant funding to cover the cost of delays to the project.
-Thursday’s decision was critical to getting the project before the Board of Public Works, a three-member panel chaired by Hogan, for final contract approval, but it was not the last step in that process, Hogan spokesman Michael Ricci said. The private company developing the project, AM Partners, also needs to complete its piece of the work, known as the design-build procurement, before the board can vote on the deal.
-Advertisement
-The project faced a late challenge from advocates who alleged that there were signs of possible fraud in traffic modeling that officials had conducted as part of their final review. The highway administration asked the U.S. Department of Transportation’s Volpe Center, which provides technical assistance to officials, to review those claims. The center’s review “did not find scientific integrity fraud” in the traffic modeling, according to an FHWA memo released along with the record of decision.
-Story continues below advertisement
-The Maryland Transit Opportunities Coalition, which alleged the possible fraud, said in a statement that it was “deeply disappointed” that approval was given “when the merits of the project have not been confirmed.” Montgomery County Executive Marc Elrich (D) called it a process “bereft of transparency” that “has ignored valid concerns from members of the public, and advocates from the environmental and transportation communities.”
-“Instead of working with partners in the government and throughout our state on this project, the Hogan Administration is rushing through a long-term commitment to a private corporation that will cost billions of dollars and will not fix gridlock,” Elrich said in a statement.
-Advertisement
-Supporters, meanwhile, hailed Thursday’s step forward for the project, which will also involve replacing the American Legion Bridge, upgrading a notorious connection between Maryland and Virginia.
-Story continues below advertisement
-“There was never any scientific fraud, and those claiming scientific fraud were once again proven to be spreading misinformation to try and undermine a project they have opposed from the very beginning,” said Jason Stanford, president of the Northern Virginia Transportation Alliance. “This critical milestone is a major victory for the hundreds of thousands of people who rely on the American Legion Bridge and I-270 every day.”
-Maryland is planning to add two toll lanes to the Beltway in each direction, between the Virginia side of a new and expanded American Legion Bridge and the exit for Old Georgetown Road in Bethesda. The lanes would ultimately extend up I-270 to Frederick, although Thursday’s approval covers only a section to Interstate 370. The regular lanes on the highways would remain toll-free, but two carpool lanes on I-270 would be converted to toll lanes.
-The project is set to be managed as a public-private partnership, with a contracting team led by Australian toll-road operator Transurban holding a deal to finance, build and manage the lanes.
-Erin Cox contributed to this report, which has been updated with reactions to the approval.
+          <t>Listen 5 min Comment on this story Comment Gift Article Share
+Summer used to end on Labor Day. Now, it’s over with the first kickoff of a significant college football game, which we will stretch, for argument’s sake, to mean Nebraska vs. Northwestern this Saturday in, of all places, Dublin. Sign up for a weekly roundup of thought-provoking ideas and debates ArrowRight Confused Cornhuskers and Wildcats may struggle to find Dublin on a map (as they have long believed the Irish capital was in South Bend, Indiana). But with the first official play from scrimmage, summer comes to a thudding stop and fall is underway.
+As are the midterm campaigns. “Election Day” is no longer a moment — Nov. 8 is the official date this year — but a season. Voting in the congressional races gets underway 46 days earlier in Minnesota and South Dakota, 45 days earlier in Virginia and Wyoming and 40 earlier in Illinois and Michigan. That’s late September, just a month away.
+Advertisement
+Story continues below advertisement
+Democrats will talk about abortion and run endlessly through their “threat to democracy” talking points, but that’s a hard narrative to maintain in the face of gale-force worries about inflation and recession.
+The GOP has boiled its message down to a half-dozen themes about what happens when one party — President Biden’s, for the moment — controls both the House and the Senate. The case for every Republican candidate has six paragraphs and a coda.
+“Affordability” should lead off most ads and speeches. Gas prices are falling with the approach of recession and the end of summer driving but groceries soared 13 percent year-over-year in July and everyone’s got to eat.
+Story continues below advertisement
+“Anxiety” covers a host of worries, of course, but serious crime and concern for loved ones tops the list. The concern over violence crescendos with every mass shooting, but it is the fear of crime rising in some suburbs that has the power to boost Republican hopes.
+Advertisement
+Ordinary Americans’ continuing “anger” with elites — whether inside big companies, big government, big media or big universities — will once again prove to be a surprise factor in voter turnout, inevitably missed by the pollsters and prognosticators. The anger is powered by a sense of things headed in the wrong direction and a resentment at those who label supporters of Donald Trump as fascists, racists and sexists. Futility at enforcing a border and disinterest in the consequences fuels the upset. The scourge of fentanyl has an address and it includes most entry points along the southern border, particularly San Diego. If Republican Senate hopefuls in Ohio, Pennsylvania, Georgia, Nevada, Wisconsin, Colorado and Washington state have a hidden superpower, this anger is it.
+“Energy” is paragraph four of the GOP agenda and part of the larger debate in this country about fossil fuels. The ground may be shifting slightly toward nuclear power in the face of climate change and rising energy prices. The absurd anti-oil policies of Biden that began with cancellation of the Keystone pipeline have not dissipated even as the cost of gasoline declines.
+Story continues below advertisement
+“Education” is the sleeper issue for every GOP candidate; so is trouble for school board incumbents who have not stepped forward to renounce mandatory masking or the infusion of critical race theory into primary schools. These issues will define many local elections.
+Advertisement
+Then, there is “ESG” — short for “Environmental, Social, Governance policies” — which usually means that large companies at the very least pay lip service to all manner of leftist aspirations from 100 percent “green” energy to declamations against “transphobia.” The ESG list, from where I sit, shape shifts as required by context and is losing its power in the C-suite. But it has gained a grip in corporate culture and workplaces. While big majorities of Americans favor a broad and welcoming acceptance of people of all sexual orientations and compassion toward people struggling through all sorts of identity crises, those same majorities reject the most extreme demands of the most outspoken activists.
+The Democrats gifted Republicans with one last weapon when they voted to add $80 billion to the budget and 87,000 staff to the payroll of the IRS over a decade and bestow a $7,500 tax credit on Americans who can afford to buy and drive electric vehicles. Ford promptly raised the price on its electric-powered “Lightning” 150 pickup. Perhaps that explains why Energy Secretary Jennifer Granholm’s message pivoted to “30 percent off solar panels!”
+And behind it all, the shame of our abandonment of Afghanistan a year ago next week.
+Fall is arriving. No pivots from these themes. Let the campaigning begin.
 GiftOutline Gift Article</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Listen 6 min Comment on this story Comment Gift Article ShareFederal authorities issued their final environmental approval Thursday for Maryland Gov.
-Backers say adding two toll lanes in each direction on sections of the Beltway and I-270 will alleviate traffic that makes commuting around the Washington region a misery for many drivers.
-Despite now having secured the approval, Hogan said he had applied for federal grant funding to cover the cost of delays to the project.
-The lanes would ultimately extend up I-270 to Frederick, although Thursday’s approval covers only a section to Interstate 370.
-The regular lanes on the highways would remain toll-free, but two carpool lanes on I-270 would be converted to toll lanes.</t>
+          <t>But with the first official play from scrimmage, summer comes to a thudding stop and fall is underway.
+“Election Day” is no longer a moment — Nov. 8 is the official date this year — but a season.
+If Republican Senate hopefuls in Ohio, Pennsylvania, Georgia, Nevada, Wisconsin, Colorado and Washington state have a hidden superpower, this anger is it.
+“Energy” is paragraph four of the GOP agenda and part of the larger debate in this country about fossil fuels.
+The ground may be shifting slightly toward nuclear power in the face of climate change and rising energy prices.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['maryland', 'continues', 'approval', 'lanes', 'green', 'controversial', 'gets', 'i270', 'plan', 'traffic', 'hogan', 'light', 'transit', 'fraud', 'toll', 'transportation', 'beltway', 'project']</t>
+          <t>['continues', 'blueprint', 'gop', 'post', 'republican', 'power', 'earlier', 'energy', 'victory', 'americans', 'washington', 'worries', 'big', 'anger']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/transportation/2022/08/25/beltway-i270-toll-lanes-hogan/</t>
+          <t>https://www.washingtonpost.com/opinions/2022/08/24/roadmap-for-a-republican-sweep/</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -770,44 +832,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Michigan G.O.P. Lining Up Behind Conspiracy Theorist for Attorney General</t>
+          <t>Charlie Crist could derail DeSantis's 2024 presidential hopes - The Washington Post</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['Alexandra Berzon', 'Nick Corasaniti']</t>
+          <t>['Jennifer Rubin']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>08-26-2022</t>
+          <t>08-24-2022</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Matthew DePerno, who is likely to be Republicans’ nominee for attorney general in Michigan, is among a group of election deniers running for offices that have significant authority over voting.
-Credit... Brittany Greeson for The New York Times</t>
+          <t>Understanding the 2022 Midterm Elections
+November’s midterm elections are likely to shift the political landscape and impact what President Biden can accomplish during the remainder of his first term. Here’s what to know.
+When are the midterm elections? The general election is Nov. 8, but the primary season is nearing completion, with voters selecting candidates in the New York and Florida primaries Tuesday. Here’s a complete calendar of all the primaries in 2022.
+Why are the midterms important? The midterm elections determine control of Congress: The party that has the House or Senate majority gets to organize the chamber and decide what legislation Congress considers. Thirty six governors and thousands of state legislators are also on the ballot. Here’s a complete guide to the midterms.
+Which seats are up for election? Every seat in the House and a third of the seats in the 100-member Senate are up for election. Dozens of House members have already announced they will be retiring from Congress instead of seeking reelection.
+What is redistricting? Redistricting is the process of drawing congressional and state legislative maps to ensure everyone’s vote counts equally. As of April 25, 46 of the 50 states had settled on the boundaries for 395 of 435 U.S. House districts.
+Which primaries are the most competitive? Here are the most interesting Democratic primaries and Republican primaries to watch as Republicans and Democrats try to nominate their most electable candidates.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Matthew DePerno, who is likely to be Republicans’ nominee for attorney general in Michigan, is among a group of election deniers running for offices that have significant authority over voting.
-Credit... Brittany Greeson for The New York Times</t>
+          <t>Understanding the 2022 Midterm ElectionsNovember’s midterm elections are likely to shift the political landscape and impact what President Biden can accomplish during the remainder of his first term.
+When are the midterm elections?
+The midterm elections determine control of Congress: The party that has the House or Senate majority gets to organize the chamber and decide what legislation Congress considers.
+Every seat in the House and a third of the seats in the 100-member Senate are up for election.
+Here are the most interesting Democratic primaries and Republican primaries to watch as Republicans and Democrats try to nominate their most electable candidates.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['conspiracy', 'lining', 'attorney', 'michigan', 'gop', 'significant', 'republicans', 'votingcredit', 'general', 'york', 'running', 'times', 'nominee', 'matthew', 'theorist', 'offices']</t>
+          <t>['hopes', '2024', 'elections', 'washington', 'primaries', 'midterm', 'house', 'heres', 'presidential', 'senate', 'seats', 'post', 'state', 'derail', 'congress', 'desantiss', 'election', 'crist', 'charlie']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nytimes.com/2022/08/26/us/politics/matthew-deperno-michigan-trump.html</t>
+          <t>https://www.washingtonpost.com/opinions/2022/08/24/charlie-crist-derail-desantis-president/</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>www.nytimes.com</t>
+          <t>www.washingtonpost.com</t>
         </is>
       </c>
     </row>
@@ -817,65 +887,69 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Opinion | The danger of critical race theory</t>
+          <t>Paso Robles school board president votes to protect gender-specific names: 'Nothing to do with pronouns'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Marc A. Thiessen']</t>
+          <t>["Cortney O'Brien"]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>08-29-2022</t>
+          <t>08-24-2022</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comment on this story Comment Gift Article Share
-By now, most Americans have heard of critical race theory. But many do not know just how radical or pernicious CRT is — because, as a new study from the American Enterprise Institute shows, the media does not explain its key tenets in its coverage. So I asked one of our nation’s preeminent historians, Princeton University professor Allen C. Guelzo, to explain CRT and why it is so dangerous.
-Critical race theory, Guelzo says, is a subset of critical theory that began with Immanuel Kant in the 1790s. It was a response to — and rejection of — the principles of the Enlightenment and the Age of Reason on which the American republic was founded. Kant believed that “reason was inadequate to give shape to our lives” and so he set about “developing a theory of being critical of reason,” Guelzo says.
-But the critique of reason ended up justifying “ways of appealing to some very unreasonable things as explanations — things like race, nationality, class,” he says. Critical theory thus helped spawn totalitarian ideologies in the 20th century such as Marxism and Nazism, which taught that all human relationships are relationships of power between an oppressor class and an oppressed class. For the Marxists, the bourgeoisie were the oppressors. For the Nazis, the Jews were the oppressors. And today, in 21st century America, critical race theory teaches that Whites are the oppressors.
-Advertisement
-Story continues below advertisement
-In CRT, “all White people are instinctively white supremacists,” Guelzo says, adding, “I say ‘instinctively’ because this is not a function of reason.” This is why its advocates talk about “systemic racism” — a CRT term that has crept into our public discourse and has even been embraced by President Biden. “Systemic sounds like systematic, except of course that it isn’t,” Guelzo says. “When you try to find something that is systematic, then you have to go find evidence.” But “systemic implies something so deep and so instinctive that you’re not even conscious of it. … [that] there is an instinctive bias that is built into people of certain colors.”
-Follow Marc A. Thiessen 's opinions Follow Add
-CRT rejects democracy as a “relic of Enlightenment reason,” Guelzo says, and argues that White people “use tricks like democracy and the search for truth … to exploit and oppress and dominate people of color.” Don’t take his word for it. Richard Delgado and Jean Stefancic, authors of “Critical Race Theory: An Introduction,” state that “critical race theory questions the very foundations of the liberal order, including equality theory, legal reasoning, Enlightenment rationalism, and neutral principles of constitutional law.”
-Because critical theory rejects reason, it cannot be questioned. Under this rubric, Guelzo says, the only purpose of questions is to serve the interests of the oppressive class, and “any answer you come up with, which doesn’t speak in terms of some hidden structure of oppression, can simply be dismissed as part of the structure of oppression.” For example, “if you believe, as the Nazis did, that the Jews are responsible for all political and economic events, then my pointing out that the overwhelming majority of political leaders are not Jews merely shows that I am either a dupe of the Jews or that I’m in on the fix.” Similarly, if you question whether all White people are oppressors, “the questioning itself is an example of how you’re in on the oppression.”
-Advertisement
-Story continues below advertisement
-For advocates of CRT, the only solution to systemic oppression is the “inversion of color power,” Guelzo explains. So while most Americans oppose racial discrimination, critical race theory embraces it. Ibram X. Kendi, one of CRT’s leading advocates, openly declares: “The only remedy to racist discrimination is antiracist discrimination. The only remedy to past discrimination is present discrimination. The only remedy to present discrimination is future discrimination.”
-This is the opposite of what the civil rights movement stood for. The Rev. Martin Luther King Jr. did not argue that America was systemically racist; he argued that racism was un-American. He appealed to the Enlightenment ideals contained in what he called our “magnificent” Declaration of Independence and Constitution, and declared his goal was to take “the whole nation back to those great wells of democracy, which were dug deep by the Founding Fathers.” King argued Bull Connor, head of the Birmingham, Ala., police, and the Southern racists were violating the principles of the American founding. But critical race theory argues the opposite — that Connor was the fulfillment of the American founding, because America was founded to perpetuate white supremacy.
-Why is this dangerous? As Richard M. Weaver famously said, “Ideas have consequences.” Critical theory has led to the rise of ideologies that have killed millions. “We have paid severe prices at those moments when people have lost faith in reason and decided to defect to something else,” Guelzo says. “Those are the moments when genocide rears its hideous head.”
-Advertisement
-Story continues below advertisement
-By rejecting reason, he argues, critical race theory could provoke a backlash that drives others “into equal, but opposite irrationality” such as “genuine white supremacy. … If your critical race theory is impervious to questioning and evidence, then fine: I will retreat into my critical race theory and it too will be impervious to evidence and the questioning. At which point then the only solution becomes violence.”
-This is why CRT is so dangerous — and must never be used to indoctrinate America’s children.
-GiftOutline Gift Article</t>
+          <t>The Paso Robles Joint Unified School District Board in California voted to approve a resolution Tuesday night to reject any mandate that would require the district to replace "traditional gender-specific names."
+"Paso Robles Joint Unified School District will not support any mandate which replaces traditional gender-specific names such as mother and father, Mr. and Mrs., ladies and gentlemen, and boys and girls," the resolution reads.
+The document said that "public debate has created confusion and concern among some parents and staff regarding the use of traditional and gender-specific titles," adding that "this resolution does not compel speech nor restrict freedom of speech."
+FAIRFAX PARENTS REACT AS BOARD VOTES ON PUNISHMENTS FOR STUDENT ‘MISGENDERING’: ‘COMPELLING THEM TO SPEECH’
+The resolution was drafted at the request of a board member in "direct response" to the National Education Association proposing new language such as "birthing parent" for "mother" and "non-birthing parent" for "father," Paso Robles School Board President Chris Arend told Fox News Digital.
+HEATED TEXAS SCHOOL BOARD MEETING ON POLICIES RELATED TO CRT, GENDER IDENTITY DRIVES HUNDREDS TO THE MIC
+"Using this contract language, members need not worry about how a Board of Education/solicitor defines ‘maternity leave,’ ‘mother,' and/or ‘father’; the language is an inclusive reflection of how LGBTQIA+ members build families," the NEA's proposed resolution said. The proposal, however, did not come up for a vote at the group's annual meeting.
+Arend defended the Paso Robles school board's resolution.
+"It had nothing to do with pronouns," Arend told Fox News Digital. "It was very a minimalistic resolution to say we want to allow people to use, ‘ladies and gentlemen.’ We will reject any mandates that try to replace those."
+Arend noted that the majority of the community members who showed up at Tuesday night's meeting were against the resolution.
+"Passing a resolution that supports the use of traditional, gender-specific names and does not also support students who use non-traditional, gender-specific names makes LGBTQ students feel excluded and unsupported," district parent Liz Tashma said at the meeting, according to the San Luis Obispo Tribune. "The reason that LGBTQ protections are specifically outlined in the law is these groups have historically been marginalized and harassed."
+"This resolution is only acting to be divisive," Douglas Heumann, an attorney and board member of the Gala Pride and Diversity Center, similarly said. "The only way to treat all persons with respect and dignity would be to use the title and the pronoun requested by that individual."
+Arend disputed those narratives.
+"As is often the case, people, instead of reading the resolution, decide to use it as an excuse to get bent out of shape," Arend said, adding the resolution was not "an attack on the gay community."
+"It's not an attack on anybody," he said, adding it was an attempt "to protect the freedom of speech. "
+The Paso Robles school board has previously weighed in on controversial topics, including voting to ban parts of critical race theory (CRT) in classrooms last August.
+"Critical race theory is a divisive ideology that assigns moral fault to individuals solely on the basis of an individual’s race and, therefore, is itself a racist ideology," the resolution read.
+"I find critical race theory to be just an absolutely disgustingly racist ideology that has been developed with the intention of really driving a wedge between various groups in America, various ethnic groups, and to use that to absolutely ruin our nation," Arend said in a statement at the time. "Very simple."
+UCLA LAW LAUNCHES PROJECT TO TRACK ‘ATTACKS’ ON CRITICAL RACE THEORY
+The debate over CRT and gender identity discussions in schools have taken the country by storm in the wake of the COVID-19 pandemic.
+In Fairfax, VA., which has served as ground zero for many of these fights, parents recently descended on school board meetings to protest new sex-ed curriculum that would increase punishments for students for "misgendering" their classmates, that is, referring to them by pronouns other than their preferred pronouns. The changes make it possible for students as young as fourth grade to be suspended for "malicious misgendering" or "deadnaming" their peers. "Deadnaming" is a word used to describe the act of referring to someone by a name they used prior to transitioning.
+"What's most concerning to me is the punishments," Tyler Ohta, founder of Moms for American Values, told Fox News Digital ahead of the vote. "They are talking about potentially giving suspensions to children as young as fourth grade, and these rules will go in place for children all the way as young as kindergarten. So to hold little children culpable, responsible, for someone else's personal decision, compelling their speech at such a young age. It's a very dangerous path that we're going down, and we need to defend our free speech and our religious beliefs."
+CLICK HERE TO GET THE FOX NEWS APP
+This week, a heated discussion over CRT drove hundreds of community members to the mic in Grapevine, Texas, Monday. The Grapevine-Colleyville Independent School District school board ultimately voted to adopt policies that would provide more oversight of library materials, limit discussion of gender identity, require individuals in district schools to only use the bathroom that aligns with their sex assigned at birth, and prohibit the teaching of CRT, the Fort Worth-Star Telegram reported.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Comment on this story Comment Gift Article ShareBy now, most Americans have heard of critical race theory.
-Critical race theory, Guelzo says, is a subset of critical theory that began with Immanuel Kant in the 1790s.
-And today, in 21st century America, critical race theory teaches that Whites are the oppressors.
-Richard Delgado and Jean Stefancic, authors of “Critical Race Theory: An Introduction,” state that “critical race theory questions the very foundations of the liberal order, including equality theory, legal reasoning, Enlightenment rationalism, and neutral principles of constitutional law.”Because critical theory rejects reason, it cannot be questioned.
-… If your critical race theory is impervious to questioning and evidence, then fine: I will retreat into my critical race theory and it too will be impervious to evidence and the questioning.</t>
+          <t>The Paso Robles Joint Unified School District Board in California voted to approve a resolution Tuesday night to reject any mandate that would require the district to replace "traditional gender-specific names."
+"Paso Robles Joint Unified School District will not support any mandate which replaces traditional gender-specific names such as mother and father, Mr. and Mrs., ladies and gentlemen, and boys and girls," the resolution reads.
+FAIRFAX PARENTS REACT AS BOARD VOTES ON PUNISHMENTS FOR STUDENT ‘MISGENDERING’: ‘COMPELLING THEM TO SPEECH’The resolution was drafted at the request of a board member in "direct response" to the National Education Association proposing new language such as "birthing parent" for "mother" and "non-birthing parent" for "father," Paso Robles School Board President Chris Arend told Fox News Digital.
+Arend defended the Paso Robles school board's resolution.
+The Paso Robles school board has previously weighed in on controversial topics, including voting to ban parts of critical race theory (CRT) in classrooms last August.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['systemic', 'jews', 'white', 'opinion', 'reason', 'crt', 'guelzo', 'discrimination', 'critical', 'danger', 'race', 'theory']</t>
+          <t>['votes', 'names', 'genderspecific', 'resolution', 'paso', 'district', 'crt', 'school', 'protect', 'young', 'board', 'race', 'traditional', 'president', 'robles', 'pronouns']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/opinions/2021/11/11/danger-critical-race-theory/</t>
+          <t>https://www.foxnews.com/media/paso-robles-school-board-president-votes-protect-gender-specific-names-nothing-do-with-pronouns</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>www.washingtonpost.com</t>
+          <t>www.foxnews.com</t>
         </is>
       </c>
     </row>
@@ -885,77 +959,61 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Judge thwarts Va. Republicans’ effort to limit book sales at Barnes &amp; Noble</t>
+          <t>Charlie Crist declares he's 'on the battlefield of love,' while DeSantis 'is on the battlefield of hate'</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['Hannah Natanson']</t>
+          <t>['Brian Flood']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>08-30-2022</t>
+          <t>08-24-2022</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Listen 7 min Comment on this story Comment Gift Article Share
-A Virginia judge on Tuesday dismissed a lawsuit brought by two Republicans that sought to limit how bookstores and public school libraries could distribute two books to minors, closing — at least temporarily — an unusual commercial strategy in what conservatives say is a campaign to protect students from age-inappropriate literature.
-The two books at the heart of the suit are Maia Kobabe’s “Gender Queer,” a memoir about identifying as nonbinary, and Sarah J. Maas’s “A Court of Mist and Fury,” a fantasy novel that depicts a dark fairy romance. Both have drawn objections for their sexual material. The suit, filed in Virginia Beach Circuit Court by Del. Tim Anderson (R-Virginia Beach) and congressional candidate Tommy Altman, aimed to prevent the Virginia Beach school system and locations of the private bookseller Barnes &amp; Noble from selling the books to children without first obtaining parental consent.
-In her order dismissing the lawsuit, Judge Pamela Baskervill concluded that part of Virginia’s state law dealing with obscenity is unconstitutional. The little-known and little-used section of the state code, around which the Republicans’ lawsuit was built, says that any Virginia citizen can file in court to have a book ruled obscene and, if a judge acquiesces, that anyone who thereafter distributes the book “is presumed to have knowledge that the book is obscene” and could be found criminally liable. The code is decades old.
-Advertisement
-Story continues below advertisement
-In her ruling, Baskervill said the law violates the First Amendment by enabling governmental censorship and by assuming that anyone distributing an obscene book must be consciously deciding to break the law, when in fact these people might “have no knowledge that a book may be considered obscene.” The law “imposes a presumption of scienter,” or knowledge that one’s actions are wrong, Baskervill wrote. In a similar line of reasoning, Baskervill concluded that the law violates the due process clause of the constitution “by authorizing judgment without notice to affected parties.”
-“Virginia Code § 18.2-384 is unconstitutional on its face,” Baskervill wrote in her final order in the case. Thus, the case itself is no longer valid and deserves dismissal, she wrote.
-Baskervill, who came out of retirement to rule because the other judges in Virginia Beach recused themselves, also found that the plaintiffs had failed to establish that either book was obscene under Virginia law. “The Petition does not allege facts sufficient to support a finding ... that the Book is obscene,” Baskervill wrote of both “Gender Queer” and “A Court of Mist and Fury.”
-Advertisement
-Story continues below advertisement
-In May, Baskervill had found there was “probable cause” to designate both books as obscene while the court entertained arguments in the case. In her order Tuesday ending the case, Baskervill wrote that finding was “issued without the benefit of briefing or argument by affected parties” and “was made on an incomplete record.”
-“It’s a Thanos snap,” Jeff Trexler, interim director of the Comic Book Legal Defense Fund who represented Kobabe in the case, said of Baskervill’s evisceration of her own previous decision.
-He added that he believes justice has been done: “The fact is, [‘Gender Queer’] is not obscene, this is a work with serious, substantial, artistic, literary and political significance ... This case should never have been brought, and a case like this should never be brought again.”
-Story continues below advertisement
-Anderson wrote in a statement Tuesday that his client, Altman, is “reviewing his appeal options” and may turn to “review by higher courts to conclusively answer this question.” He also suggested they might seek “additions to the code by the General Assembly.” Kobabe and Maas did not immediately respond to requests for comment Tuesday.
-Advertisement
-What happens next depends whether Altman and Anderson decide to appeal. Because issues of the First Amendment and due process are involved, Trexler predicted, the case could eventually rise to the Virginia Supreme Court — and beyond that to the Supreme Court.
-For now, Baskervill’s ruling, so long as it continues unchallenged, means that the specific section of Virginia’s obscenity law she deemed unconstitutional is no longer valid in the particular slice of the state under the jurisdiction of the Virginia Beach City Circuit Court, Trexler said. And it means that the two books can be sold freely by private bookseller Barnes &amp; Noble.
-Story continues below advertisement
-At least one of the two texts is no longer available in Virginia Beach City Public Schools, however. Around the same time the lawsuit was winding its way through the courts in May, the school board decided to remove all copies of “Gender Queer” from its libraries due to the book’s sexual content. On Tuesday before the judge’s final ruling, Anderson and Altman withdrew part of their suit that had targeted the school system, citing the fact that the district had already nixed students’ access to “Gender Queer.”
-Advertisement
-Kamala Lannetti, attorney for the Virginia Beach School Board, wrote in a statement that, “at today’s hearing, the School Board argued that the Court did not have jurisdiction over the School Board” because Virginia obscenity law “exempts public schools from the application of ... Proceedings against book alleged to be obscene.” But, Lannetti wrote, this issue became “moot” after the plaintiff’s withdrawal — and the “School Board did not take a position on the other arguments before the Court.”
-Barnes &amp; Noble did not respond to a request for comment Tuesday.
-Story continues below advertisement
-“Gender Queer,” written in the form of a graphic novel, tracks author Kobabe’s journey from adolescence to adulthood and Kobabe’s coming out as asexual and gender nonbinary. The book contains some graphic sexual scenes — for example depictions of oral sex, masturbation and a sexual fantasy implying fellatio between an apparently teenaged youth and an older, bearded man — that have drawn harsh criticism from parents, including allegations the book is showcasing pedophilia.
-Advertisement
-“A Court of Mist and Fury” is the second in Maas’s best-selling Court of Thorns and Roses series, which reimagines well-known sagas and fairy tales, such as “Beauty and the Beast,” from new and different perspectives. Common Sense Media, the book review site, has recommended the text for ages 17 and up, noting it is “filled with sex, gore magic.”
-The lawsuit comes amid an unprecedented nationwide shrinking of students’ reading freedom in the United States. Book challenges and bans both reached historic highs last school year. In the past two years, six states have passed laws that mandate parental involvement in reviewing books or make it easier for parents to remove or restrict texts at school, while another five states are considering similar legislation. And Republican legislators in at least nine states are pushing laws that require school library databases to block certain kinds of content.
-Overall, the books targeted are mostly written by and about people of color and LGBTQ individuals, according to PEN American and the American Library Association — the latter of which recently found that “Gender Queer” was the most challenged book of 2021.
-correction A previous version of this article used incorrect pronouns for Maia Kobabe. Kobabe uses "e/em/eir" pronouns.
-GiftOutline Gift Article</t>
+          <t>Democratic Rep. Charlie Crist, Fla., declared he’s "on the battlefield of love" Wednesday after he clinched the Democratic Party's nomination in Florida's gubernatorial election.
+Crist was not misquoting Pat Benatar’s 1983 hit "Love Is a Battlefield," but rather taking a shot at incumbent Florida Gov. Ron DeSantis, R., who he will face in the general election for governor of the Sunshine State later this year. During an appearance on MSNBC’s "Morning Joe," Crist was asked how he plans to "fight" the popular Republican on cultural issues such as critical race theory and the Parental Rights in Education bill.
+"He is on the battlefield of hate, I am on the battlefield of love," Crist said. "There is faith, hope and love and the greatest of these is love. It’s in Corinthians, in the Bible, I’m going to beat him because I’m running on love and love always wins."
+CHARLIE CRIST WINS DEMOCRATIC NOMINATION FOR GOVERNOR OF FLORIDA, WILL TAKE ON DESANTIS IN NOVEMBER
+Crist, a former Republican who became an independent and later a Democrat in 2012, once served as Florida's governor while still a member of the GOP. He is known for his massive flip-flops on a host of issues throughout his lengthy political career. A former social conservative who fiercely opposed Barack Obama, he became one of his strongest advocates, and Crist fawned over President Biden on Wednesday as "the best I've ever met."
+He said Wednesday on MSNBC if DeSantis "wants to run on hate, and culture wars, and dividing people and making people hate each other, that’s his turf."
+"That’s what this campaign is about, hate versus love. His hate versus our love, God’s love," Crist said.
+MSNBC host Willie Geist repeated Crist’s newfound catchphrase as the interview wrapped.
+"The Democratic nominee now for governor of Florida fighting on the battlefield of love," Geist said.
+Earlier this month, Crist claimed DeSantis is the "most arrogant" governor he had ever seen and called him a "wannabe dictator."
+"He’s the most arrogant governor I’ve ever seen in my life. It is shocking, it really is. Enough is enough," Crist said, according to The Guardian. "He’s a barbaric, wannabe dictator."
+No Democrat has won a governor's election in Florida since 1994. Florida, long a critical swing state, has shifted to the right in recent elections, with Donald Trump carrying the state in 2016 and 2020, and the state sporting two Republican U.S. Senators.
+On Wednesday, Crist told reporters he's not interested in reaching out to DeSantis supporters in the general election, saying they had "hate" in their hearts.
+"If you support the governor, keep supporting him. I don't want your vote. If you have that hate in your heart, keep it there," he said.
+CLICK HERE TO GET THE FOX NEWS APP
+Fox News’ Kyle Morris contributed to this report.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>In her order dismissing the lawsuit, Judge Pamela Baskervill concluded that part of Virginia’s state law dealing with obscenity is unconstitutional.
-Baskervill, who came out of retirement to rule because the other judges in Virginia Beach recused themselves, also found that the plaintiffs had failed to establish that either book was obscene under Virginia law.
-And it means that the two books can be sold freely by private bookseller Barnes &amp; Noble.
-Story continues below advertisementAt least one of the two texts is no longer available in Virginia Beach City Public Schools, however.
-And Republican legislators in at least nine states are pushing laws that require school library databases to block certain kinds of content.</t>
+          <t>Democratic Rep. Charlie Crist, Fla., declared he’s "on the battlefield of love" Wednesday after he clinched the Democratic Party's nomination in Florida's gubernatorial election.
+Crist was not misquoting Pat Benatar’s 1983 hit "Love Is a Battlefield," but rather taking a shot at incumbent Florida Gov.
+"He is on the battlefield of hate, I am on the battlefield of love," Crist said.
+It’s in Corinthians, in the Bible, I’m going to beat him because I’m running on love and love always wins."
+His hate versus our love, God’s love," Crist said.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['book', 'court', 'sales', 'republicans', 'noble', 'limit', 'effort', 'obscene', 'thwarts', 'books', 'va', 'judge', 'law', 'virginia', 'school', 'wrote', 'barnes', 'case', 'baskervill']</t>
+          <t>['governor', 'desantis', 'hes', 'hate', 'battlefield', 'declares', 'democratic', 'republican', 'crist', 'florida', 'charlie', 'state', 'love']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/education/2022/08/30/barnes-and-noble-virginia-book-ban/</t>
+          <t>https://www.foxnews.com/media/charlie-crist-declares-battlefield-love-while-desantis-battlefield-hate</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>www.washingtonpost.com</t>
+          <t>www.foxnews.com</t>
         </is>
       </c>
     </row>
@@ -965,54 +1023,70 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Youngkin's toxic Virginia school 'tip line' is shrouded in secrecy - The Washington Post</t>
+          <t>The Virginia history its state board doesn’t want students to know</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Editorial Board']</t>
+          <t>['Kevin M. Levin', 'Kevin M. Levin Is A Historian', 'Educator Based In Boston', 'Is The Author Of', 'Searching For Black Confederates', 'The Civil War S Most Persistent Myth.']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>08-30-2022</t>
+          <t>08-25-2022</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Listen 3 min Comment on this story Comment Gift Article Share
-Gov. Glenn Youngkin (R) took office this year with a double message for his fellow Virginians, encouraging them to “love your neighbor” while also urging them to use a new tip line to complain about “divisive” school teaching. Sign up for a weekly roundup of thought-provoking ideas and debates ArrowRight In fact, announced just days after his inauguration, Mr. Youngkin’s email tip line itself turned out to be divisive. He asked “folks to send us reports and observations” on objectionable material being taught at schools, adding that the state would “catalogue it all.” The “divisive” material he had in mind, as he made clear in his first executive order, dealt with race, although he defined his terms so gauzily that they could mean almost anything.
-The tip line triggered criticism, anger and mockery in Virginia and beyond. The association representing all 133 of Virginia’s local school superintendents wrote to Mr. Youngkin, pointing out that the tip line “impedes positive relationships,” and pleading with him to scrap it. He refused.
-Advertisement
-Story continues below advertisement
-He has also shrouded the tip line in secrecy, refusing to make public the volume or content of the communiques it has received or the actions the state government has taken in response. If Mr. Youngkin’s tip line has sent any message to teachers, it is: Big Brother is watching, and he won’t tell you what he’s found out.
-A dozen news organizations, including The Post, filed a lawsuit in April seeking access to the tip line’s submissions. Those submissions — rendered through a public channel, at the behest of a public official, with the ostensible purpose of modifying the material taught at public schools — should be public. American Oversight, an ethics watchdog organization, and the law firm Ballard Spahr filed a second lawsuit this month. It seeks similar information, including how the Youngkin administration has responded to tip line submissions.
-“What is the tip line’s true purpose and how has the administration acted on these ‘tips’?” Heather Sawyer, American Oversight’s executive director, said in a statement. “What is it about this program that they don’t want the public to see?”
-Advertisement
-Story continues below advertisement
-Those are the right questions. In response, the Youngkin administration so far has stonewalled, with officials saying, preposterously, that tip line submissions should be regarded as the governor’s “working papers and correspondence” and therefore somehow beyond the reach of the public domain.
-The tip line could intimidate teachers, sending the message that they should tread carefully, particularly on instruction involving race, or avoid such topics altogether. That was the unmistakable gist of Mr. Youngkin’s first executive order, “on ending the use of inherently divisive concepts, including critical race theory” — which is not taught in the state’s public schools.
-Students should learn how to be engaged, thoughtful citizens. By setting out an ambiguous taboo and inviting Virginians to report secretly on those who might run afoul of it, Mr. Youngkin has risked making it harder for teachers to promote this sort of learning. He should be required to disclose the results.
+          <t>Listen 8 min Comment on this story Comment Gift Article Share
+The Virginia Board of Education has delayed its review of state standards for history and social studies — a process that it is required to undertake every seven years. The nine-member board is now dominated by appointees of Republican Gov. Glenn Youngkin, who campaigned on rooting out critical race theory from schools and offering parents an anonymous tip line to report anything they deem to be suspicious taking place in the classroom.
+This politicization of history education and the demonization of history teachers will probably have a profound impact on the now-delayed review. The 2022 History and Social Science Standards of Learning (SOLs) will shape what Virginia students learn about their Commonwealth’s past.
+Regardless of what the board approves as the final version, it won’t include one of the most important chapters in Virginia’s history. Just after Reconstruction, between 1879 and 1883, Virginia was governed by a biracial party known as the Readjusters. During this brief period, African Americans assumed positions of significant political power at every level of local and state government decades before the legal restrictions and violence of Jim Crow slammed the doors shut for decades. This history offers an important reminder during our own time of deep political division that political coalitions that transcend class, race and political party are possible even during the most tumultuous times.
+Advertisement
+Story continues below advertisement
+Reconstruction came late to Virginia. It did not arrive as a result of an invasion of “carpetbaggers” from the North or military occupation, as Virginians were taught throughout much of the 20th century, but as an unlikely result of the leadership of a former Confederate general and native Virginian.
+William Mahone was born in 1826 to tavernkeepers in Southampton County. One of his earliest memories was the bloodshed and violence that erupted as a result of Nat Turner’s failed slave rebellion in 1831. In 1847, Mahone graduated from the Virginia Military Institute with a degree in civil engineering. By 1860 he was living in Petersburg and serving as the chief engineer of the Norfolk and Petersburg Railroad. Mahone also counted seven enslaved people as his personal property.
+At the start of the Civil War, Mahone was commissioned a captain in the Confederate army and gradually rose in rank, though he failed to distinguish himself on the battlefield. That changed early on the morning of July 30, 1864, after the U.S. Army detonated 8,000 pounds of powder under a Confederate salient just outside of Petersburg.
+Advertisement
+Story continues below advertisement
+During the Battle of the Crater, four Union divisions, including one made up entirely of Black soldiers, poured into the breach in an attempt to break the Confederate line and take possession of the city. But Mahone and his division secured a decisive victory. Thousands of men lay dead and dying in the sweltering heat, including upward of 200 Black soldiers, who were massacred by the Confederates. These men were executed as “slaves in rebellion” by Mahone’s men rather than treated as soldiers or prisoners of war.
+After the war, Mahone remained involved in Confederate veterans’ activities, all the while taking steps to expand his railroad interests. He cultivated political allies in Richmond to manage what became known as the Atlantic, Mississippi &amp; Ohio Railroad. Following the financial collapse of 1873 and the loss of the railroad, Mahone entered state politics.
+The central political question for Virginian leaders at this time was what to do about the state’s massive debt, incurred even before the war. Conservative elements proposed paying it off in full, but Mahone and others advocated “readjustment downward” or paying off part of the debt, which would leave state funds for public schools and other projects. In the 1879 state elections, Mahone helped to steer his Readjuster Party to victory, winning 56 out of 100 seats in the House of Delegates and 24 of 50 senators. With a majority of Readjusters in the General Assembly, Mahone was elected to the U.S. Senate, where he caucused with the Republican Party. In the process, Mahone helped forge a powerful biracial coalition that controlled the state for the next four years.
+Advertisement
+Story continues below advertisement
+With Mahone in the Senate and Readjusters in control of the General Assembly and the governorship, this coalition easily passed legislation. Virginia’s state debt was readjusted downward to $21 million, with enough funds left to fulfill campaign promises that benefited poor White and especially African American communities. In 1882, the General Assembly passed legislation supporting the Literary Fund with an appropriation of $379,000, plus an additional payment to public schools; schools with Black teachers were also given support. Not surprisingly, more-conservative Whites perceived this legislation as a threat to established racial and social hierarchies.
+Black political leaders such as Dr. Daniel M. Norton, Alfred M. Harris and the Rev. William Troy demanded a significant share of the patronage within the Readjuster Party. Norton and Harris were both formerly enslaved. At the height of Readjuster control, African Americans made up 27 percent of Virginia’s employees in the Treasury Department, 11 percent in the Pensions Bureau, 54 percent in the Secretary’s Office, 38 percent in the Post Office and 28 percent in the Interior Department (including two Black women). With Mahone’s support, African Americans also found jobs as clerks and copyists in Washington — an accomplishment unparalleled in other Reconstruction-era states.
+The visibility of African Americans in state government constituted a radical change in the distribution of political power and was seen by many as a threat to White political rule in Virginia. Readjusters also changed the makeup of public schools. The changes they enacted increased the number of Black teachers and students, and the establishment of the Virginia Normal and Collegiate Institute (Virginia State University) opened up avenues of upward mobility. The number of Black teachers soared from 415 in 1879 to 1,588 in 1884, and Black enrollment in schools went from 36,000 to 91,000 between those years.
+Advertisement
+Story continues below advertisement
+Mahone and the Readjusters abruptly lost power following a racial riot in Danville on Nov. 3, 1883.
+Two decades later, Virginians passed a state constitution that cut into what little remained of any Black political influence. Mahone died in 1895, leaving a conflicting legacy. White Virginians praised his service to the Confederacy, but many were unwilling to forgive his attempt to overturn its deeply ingrained racial hierarchy. The desire to move on from a brief period in which Black Virginians enjoyed full political rights and the need to justify a return to White control guaranteed that Mahone and the Readjusters would be banished from school textbooks and public memory.
+Students today learn nothing about this important chapter of Virginia history.
+Story continues below advertisement
+Even the proposed 2022 SOLs, which have been revised to “incorporate diverse perspectives,” do not cover it. As it stands, the state’s SOLs on Reconstruction ask students to consider the important work of the federal Freedmen’s Bureau, as well as the significance of the three constitutional amendments that ended slavery, guaranteed birthright citizenship and awarded Black men the right to vote. As for important people of the era, students are expected to be able to explain the “lasting impacts” of Abraham Lincoln, Robert E. Lee and Frederick Douglass “on the nation.” Nothing in the state’s SOLs gives students a sense of the importance of Virginia’s experiment with biracial democracy.
+Advertisement
+This episode offers an important reminder that the end of Reconstruction and the beginning of legalized segregation during the Jim Crow era were not inevitable across the postwar South. Interracial cooperation was not only possible, it was a reality for a few short years in Virginia.
+The political posturing and fearmongering that have come to dominate the conversation surrounding history and social studies education over the past few years will probably shape the debate over the next set of SOLs for history and social studies in Virginia. Efforts to censor the teaching of American history will deprive students in Virginia and elsewhere of a complex and challenging historical narrative, the chance to find meaning in the past and the opportunity to engage difficult questions about race and inequality.
 GiftOutline Gift Article</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sign up for a weekly roundup of thought-provoking ideas and debates ArrowRight In fact, announced just days after his inauguration, Mr. Youngkin’s email tip line itself turned out to be divisive.
-The tip line triggered criticism, anger and mockery in Virginia and beyond.
-The association representing all 133 of Virginia’s local school superintendents wrote to Mr. Youngkin, pointing out that the tip line “impedes positive relationships,” and pleading with him to scrap it.
-If Mr. Youngkin’s tip line has sent any message to teachers, it is: Big Brother is watching, and he won’t tell you what he’s found out.
-It seeks similar information, including how the Youngkin administration has responded to tip line submissions.</t>
+          <t>The 2022 History and Social Science Standards of Learning (SOLs) will shape what Virginia students learn about their Commonwealth’s past.
+Black political leaders such as Dr. Daniel M. Norton, Alfred M. Harris and the Rev.
+The changes they enacted increased the number of Black teachers and students, and the establishment of the Virginia Normal and Collegiate Institute (Virginia State University) opened up avenues of upward mobility.
+Two decades later, Virginians passed a state constitution that cut into what little remained of any Black political influence.
+Students today learn nothing about this important chapter of Virginia history.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['tip', 'line', 'mr', 'secrecy', 'submissions', 'youngkins', 'post', 'virginia', 'washington', 'taught', 'shrouded', 'school', 'public', 'toxic', 'teachers', 'divisive', 'youngkin']</t>
+          <t>['important', 'history', 'virginia', 'black', 'students', 'political', 'readjusters', 'board', 'state', 'doesnt', 'schools', 'mahone', 'know']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/opinions/2022/08/15/youngkin-school-tip-line-secret/</t>
+          <t>https://www.washingtonpost.com/made-by-history/2022/08/25/virginia-history-its-state-board-doesnt-want-students-know/</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1027,45 +1101,665 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The First A.P. African American Studies Class Is Coming This Fall</t>
+          <t>Teacher quits in protest after being punished for banned-books sign</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Anemona Hartocollis']</t>
+          <t>['Jonathan Edwards']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>08-31-2022</t>
+          <t>08-25-2022</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The College Board is jumping into the fray over how to teach the history of race in the United States with a new Advanced Placement course and exam on African American studies that will be tried out in about 60 high schools this fall.
-The course is multidisciplinary, addressing not just history but civil rights, politics, literature, the arts, even geography. If the pilot program pans out, it will be the first course in African American studies for high school students that is considered rigorous enough to allow students to receive credit and advanced placement at many colleges across the country.</t>
+          <t>Listen 7 min Comment on this story Comment Gift Article Share
+Summer Boismier got through only one day of the school year before a parent complained and administrators descended on her high school classroom to investigate. Days later, she quit in protest of a new Oklahoma law that restricts teaching about race and gender. Wp Get the full experience. Choose your plan ArrowRight Even before the first day of the school year at Norman High School, Boismier suspected her personal classroom library would get her in trouble by running afoul of that law, so she covered her books with butcher paper. But she added a touch of defiance, scrawling a message in permanent marker across the paper.
+“Books the state doesn’t want you to read,” it said.
+Cries to remove books from classrooms and library shelves is nothing new. Some of what has shifted are the storylines, characters and authors being silenced. (Video: Allie Caren/The Washington Post, Photo: Illustration: Brian Monroe/The Washington Post)
+Boismier, 34, included a QR code that her sophomore English students could scan with their phones, taking them to an application for a Brooklyn Public Library card. The site said that, even if they lived out of state, teenagers could still access materials as part of the library’s Books Unbanned project, “a response to an increasingly coordinated and effective effort to remove books tackling a wide range of topics from library shelves.”
+Advertisement
+Story continues below advertisement
+Hours later, a parent complained to school officials about Boismier, accusing her of violating a new state law limiting public school lessons or materials that lead students to “feel discomfort, guilt, anguish or any other form of psychological distress” because of their race or gender. The complaint thrust Boismier into the debate about the role parents, teachers and administrators play in deciding what to teach children, particularly when it comes to race and gender. Politicians in 35 other states are trying to restrict or have restricted education on racism, bias and related topics, according to Chalkbeat.
+Oklahoma’s law is particularly severe, The Washington Post reported. Teachers deemed to have violated the law can lose their teaching licenses.
+In the first half of last year, Boismier and her colleagues monitored the legislation closely as it worked its way through the Oklahoma legislature, worried “because essentially what it attempts to do is legislate feelings and legislate intent.”
+Advertisement
+Story continues below advertisement
+Even though the new law took effect months before Boismier started her first year at Norman High, she told The Post that she mostly ignored it and taught as she had in her previous seven years in a classroom. Boismier said one of the most important parts of her job is to talk openly about the dark chapters of American history and how those shaped and continue to shape literature and identity.
+“I believe we need to have those difficult conversations,” she said. “That is absolutely essential to what I do.”
+But things changed late last month when the state Board of Education downgraded two school districts’ accreditations for violating the new law, Boismier said. The moves sent a warning to teachers in other districts across the state, she said.
+Story continues below advertisement
+“It was intended to send a message, and message received,” she added.
+Advertisement
+On Aug. 11, teachers in Norman returned to work from summer break eight days before classes began. Because of the new law and the “serious legal consequences for teachers and districts,” administrators told teachers to review their classroom libraries before the first day of school to “ensure age-appropriateness,” asking them to vouch for the works or “provide at least two professional sources verifying their appropriateness,” a district spokesperson told The Post in a statement.
+“We have not banned any books or told teachers to remove books from their classrooms,” spokesperson Wes Moody said in the statement. “Classroom libraries enrich our schools and we want our classrooms to be places where literacy thrives.”
+Story continues below advertisement
+Boismier said she was one of the teachers who asked for guidance on personal classroom libraries. She’d spent her own money to build hers into a collection of more than 500 books, many of the texts selected to broaden lessons beyond official reading lists she said are often stacked with works written by “mostly old, dead White guys.”
+Advertisement
+“That’s a way for me to supplement that and add in those more inclusive, multicultural texts that the curriculum, the reading lists that are official doesn’t allow for,” Boismier said, adding, “If you’ve seen it on a banned books list, I have made an effort to acquire it.”
+Referencing the bill that would eventually become the new law restricting classroom discussion on race and gender, she called her library “a physical manifestation of an HB 1775 violation.”
+Story continues below advertisement
+Teachers were asked to either box up the books that might trigger a complaint, turn them so their spines faced inward or cover them, she said. Choosing the latter option, Boismier got out the butcher paper to hide the books from the very students she would have lent them to in years past.
+She included the QR code along with a caption: “Definitely don’t scan this!”
+Advertisement
+Boismier told CNN that district officials said they felt the label on the QR code made it forbidden, and they didn’t want to encourage students to do anything illegal. She told The Post that officials put her on administrative leave. In its statement, the district rebutted that claim, saying Boismier was never placed on administrative leave or suspended.
+Story continues below advertisement
+But they did punish her, the district spokesperson said. At a Tuesday meeting, administrators told Boismier she was being admonished for “making personal, political statements during class time and using their classroom to make a political display expressing those opinions.”
+“Like many educators, the teacher has concerns regarding censorship and book removal by the Oklahoma state legislature,” Moody wrote in a statement to The Post. “However, as educators it is our goal to teach students to think critically, not to tell them what to think.”
+Advertisement
+Administrators asked Boismier to report back to her classroom Wednesday morning. Instead, she resigned. Boismier told The Post if she stayed and taught the way she always has, she feared being hit with an escalating series of punishments.
+Story continues below advertisement
+So, Boismier said, she accelerated things and is out of a job, wishes she were still teaching in a classroom and doesn’t know what she’ll do next. Still, she has no regrets over what she did or resigning. She recognized the school district was in a tight spot and said she placed most of the blame on Oklahoma Republicans for fomenting what she described as a growing culture of fear, confusion and uncertainty in schools.
+Amid that climate, Boismier said, she doesn’t feel like she has a place in an Oklahoma classroom.
+She hopes that changes.
+Boismier said she might get a job coaching teachers on how to instruct students more effectively. Or she could get into education advocacy. Whatever she does, she plans to stay in education — in Oklahoma.
+“That’s a message that I’d like to send to the folks at the top of the food chain in state leadership,” she said. “I’m not going anywhere.”
+GiftOutline Gift Article</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The College Board is jumping into the fray over how to teach the history of race in the United States with a new Advanced Placement course and exam on African American studies that will be tried out in about 60 high schools this fall.
-The course is multidisciplinary, addressing not just history but civil rights, politics, literature, the arts, even geography.
-If the pilot program pans out, it will be the first course in African American studies for high school students that is considered rigorous enough to allow students to receive credit and advanced placement at many colleges across the country.</t>
+          <t>Days later, she quit in protest of a new Oklahoma law that restricts teaching about race and gender.
+“Books the state doesn’t want you to read,” it said.
+“We have not banned any books or told teachers to remove books from their classrooms,” spokesperson Wes Moody said in the statement.
+Boismier told The Post if she stayed and taught the way she always has, she feared being hit with an escalating series of punishments.
+Boismier said she might get a job coaching teachers on how to instruct students more effectively.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['studies', 'advanced', 'course', 'high', 'fall', 'placement', 'history', 'united', 'coming', 'african', 'students', 'american', 'class', 'ap']</t>
+          <t>['boismier', 'continues', 'law', 'told', 'teacher', 'books', 'school', 'protest', 'post', 'sign', 'quits', 'state', 'classroom', 'teachers', 'punished', 'bannedbooks']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nytimes.com/2022/08/31/us/ap-african-american-studies.html</t>
+          <t>https://www.washingtonpost.com/nation/2022/08/25/oklahoma-teacher-resigns/</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>www.nytimes.com</t>
+          <t>www.washingtonpost.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Minnesota teachers could face 'racial consciousness' standard in new teaching license requirements</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Kelsey Koberg']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>08-25-2022</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Teachers in Minnesota may be facing new licensing requirements, with an emphasis placed on racial consciousness.
+The Minnesota Professional Educator Licensing and Standards Board is considering new rules for teacher licensing for the first time in two decades, replacing the ten existing "Standards of Effective Practice" with eight new ones, including one standard on "Racial consciousness and reflection."
+The other standards – student learning, learning environments, assessment, planning for instruction, instructional strategies, professional responsibilities and collaboration and leadership – all include subsections focused on racism, cultural differences or bias.
+A subsection under "learning environments" says teachers should foster "an environment that ensures student identities such as race/ethnicity, national origin, language, sex and gender, gender identity, sexual orientation, physical/developmental/emotional ability, socioeconomic class, and religious beliefs are historically and socially contextualized, affirmed, and incorporated into learning."
+DR. SAPHIRE SLAMS VIRGINIA COUNTY'S ‘WOKE’ TEACHER TRAINING: THEY'RE TRYING TO SEPARATE CHILDREN FROM PARENTS
+A subsection under "planning for instruction" says teachers should choose "anti-racist, culturally relevant" instructional strategies and resources.
+A subsection of "professional responsibilities" requires teachers to assess "how their biases, perceptions, and academic training may affect their teaching practice and perpetuate oppressive systems."
+The process of updating the standards began in 2021, and included a lengthy public comment period, as well as a public hearing Wednesday with hundreds in attendance online.
+MINNEAPOLIS SCHOOL BOARD CANDIDATE QUESTIONS EFFECTIVENESS OF RACE-BASED LAYOFF POLICY: ‘IT’S A BIGGER ISSUE'
+The Minnesota Professional Educator Licensing and Standards Board this month released a document responding to public comment, maintaining that the Standards of Effective Practice "are needed and reasonable to ensure Minnesota’s teachers have the necessary foundation of knowledge and skills to be effective in the classroom."
+Catrin Wigfall, a policy fellow at the Minnesota-based Center for the American Experiment, is one of many who spoke in opposition to the proposed licensing requirements at yesterday’s seven-hour hearing.
+"The proposed changes to Minnesota’s licensing standards would require the state’s aspiring educators to ‘demonstrate’ ideologically driven content to obtain their teaching license," Wigfall told Fox News Digital. "The new standards are dripping with critical race theory, gender ideology, and identity politics."
+UTAH TEACHER QUESTIONS WHETHER ‘POSH, WHITE PARENTS’ WILL OPPOSE HER CLASSROOM ‘BUILT FOR NON-WHITE STUDENTS’
+Wigfall, and others, raised concern that the new standards would further exacerbate the state’s already declining academic performance.
+Minnesota’s reading and math proficiency has dropped for the fifth year in a row, reported the Pioneer Press Thursday, with just 42% of students who were tested proficient in math, and 49% proficient in reading.
+"The bottom line is that if these licensing changes are approved, any educator who wishes to be licensed in Minnesota — even to teach in a private school — will have to demonstrate a racist, ideologically driven worldview," Wigfall added.
+MINNEAPOLIS TEACHERS UNION DEFENDS RACE-BASED LAYOFF POLICY AMID BACKLASH: ‘MADE UP BY THE RIGHT WING’
+The Minneapolis Public Schools, one of the largest districts in the state, came under fire last week for an agreement between the district and the teachers union which would provide protections for persons of color from seniority-based layoffs.
+Both the teachers union and the district stood by the agreement, saying it was designed to remedy past discrimination on the part of the school system.
+CLICK HERE TO GET THE FOX NEWS APP
+Elements of the proposed Minnesota standard about racial consciousness and reflection require teachers to understand "multiple theories of race and ethnicity," "how ethnocentrism, eurocentrism, deficit-based teaching, and white supremacy undermine pedagogical equity," and "that knowledge creation, ways of knowing, and teaching are social and cultural practices shaped by race and ethnicity, often resulting in racially disparate advantages and disadvantages."</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Teachers in Minnesota may be facing new licensing requirements, with an emphasis placed on racial consciousness.
+The Minnesota Professional Educator Licensing and Standards Board is considering new rules for teacher licensing for the first time in two decades, replacing the ten existing "Standards of Effective Practice" with eight new ones, including one standard on "Racial consciousness and reflection."
+A subsection of "professional responsibilities" requires teachers to assess "how their biases, perceptions, and academic training may affect their teaching practice and perpetuate oppressive systems."
+"The proposed changes to Minnesota’s licensing standards would require the state’s aspiring educators to ‘demonstrate’ ideologically driven content to obtain their teaching license," Wigfall told Fox News Digital.
+Both the teachers union and the district stood by the agreement, saying it was designed to remedy past discrimination on the part of the school system.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['professional', 'standards', 'consciousness', 'licensing', 'teacher', 'license', 'teaching', 'minnesota', 'face', 'union', 'public', 'racial', 'wigfall', 'teachers', 'standard', 'requirements']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.foxnews.com/media/minnesota-teachers-could-face-racial-consciousness-standard-in-new-teaching-license-requirements</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>www.foxnews.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Missouri School district labeled gender a ‘universe’ in training-program</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>["Cortney O'Brien"]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>08-25-2022</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Education activist Christopher Rufo sounded off on a gender theory training program once offered by Missouri's Springfield Public Schools in a lengthy Twitter thread Wednesday.
+The program, which Springfield Public Schools told Fox News Digital hasn't been offered in over two years, reportedly urged teachers to identify their racial and sexual "privilege," promoted identities like "pansexual" and "polyamorous," and warned that "misgendering a trans person is an act of violence."
+RADICAL GENDER THEORY HAS NOW MADE ITS WAY INTO MORE THAN 4,000 US SCHOOLS
+Rufo, a Manhattan Institute Senior Fellow, shared photos of some slides featured during the training.
+One slide featured a "matching game" with a basic glossary for critical theory, explaining that some groups - such as straight, White, cisgender men - have "power" and "privilege" over others based on the categories of "race," "gender," "identity," and "sexual orientation." Teachers are then asked to classify themselves on a "social identities" wheel and account for their race, sex, gender, sexual orientation, and socioeconomic status.
+CHRIS RUFO CALLS MEDIA DENIAL CRT EXISTS IN SCHOOLS A ‘DELIBERATE STRATEGY’: ‘THEY HAVE NO CHOICE’ BUT TO LIE
+In another part of the presentation, administrators shared a video featuring "genderqueer" and "nonbinary" children, titled "Why Gender Pronouns Matter," which claimed that "gender is a universe," that some children "don’t have a gender," and that "misgendering a trans person is an act of violence."
+PASO ROBLES SCHOOL BOARD PRESIDENT VOTES TO PROTECT GENDER-SPECIFIC NAMES: ‘NOTHING TO DO WITH PRONOUNS’
+"Thankful @realchrisrufo is shedding light on teacher trainings across America that force teachers to adopt, affirm, and teach woke ideologies - critical race theory and queer theory," Kimberly Hermann, general counsel for The Southeastern Legal Foundation (SLF), tweeted in response to his thread.
+Springfield Public Schools responded to Rufo's Twitter thread, saying it was full of "recycled allegations."
+"Mr. Rufo’s latest story includes a list of recycled allegations about a training that hasn’t been offered at SPS in more than two years," district spokesperson Stephen D. Hall told Fox News Digital. "One anecdote shared by Mr. Rufo names a staff member who is no longer employed by the district. A story that focuses on details about a training that no longer exists and cites examples about a staff member no longer employed is neither timely nor relevant. It is an inaccurate portrayal of our district."
+SLF filed a federal lawsuit in the Western District of Missouri last year against a separate, mandatory equity or "anti-racist" training "to stop Springfield Public Schools (SPS) from violating the First Amendment and requiring as a condition of employment that its educators commit to equity, become anti-racist educators, and affirm divisive and discriminatory programming that promotes treating individuals differently based on skin color," the group explained.
+"The lawsuit SLF filed on behalf of educators against SPS challenging its mandatory anti-racist training has inspired hundreds of concerned parents and teachers to reach out to us about potential legal challenges," Hermann told Fox News Digital. "The documents highlighted in Chris Rufo’s story expose another critical area for legal review and may even violate the constitutional rights of the teachers required to take the gender ideology trainings."
+Rufo previously reported on Springfield Public Schools’ equity training program, which, among other instructions, required teachers to locate themselves on an "oppression matrix" and watch a video of "George Floyd’s last words." Administrators were accused of promoting critical race theory (CRT) during the training. Missouri attorney general Eric Schmitt launched an investigation into Springfield Public Schools regarding the equity program and said that investigation would be expanded following Rufo's revelations about the gender-related training.
+"These revelations and disturbing materials will be rolled into our ongoing investigation," Schmitt said Wednesday.
+"The materials that have come to light that were included in teacher trainings in the largest school district in the state of Missouri are shocking to say the least, and they warrant an investigation - to turn a blind eye to these materials would be irresponsible," Schmitt's press secretary Chris Nuelle told Fox News Digital. "The Attorney General’s Office has proudly stood up for students and worked to empower parents, and we will continue that fight."
+CLICK HERE TO GET THE FOX NEWS APP</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Education activist Christopher Rufo sounded off on a gender theory training program once offered by Missouri's Springfield Public Schools in a lengthy Twitter thread Wednesday.
+RADICAL GENDER THEORY HAS NOW MADE ITS WAY INTO MORE THAN 4,000 US SCHOOLSRufo, a Manhattan Institute Senior Fellow, shared photos of some slides featured during the training.
+Teachers are then asked to classify themselves on a "social identities" wheel and account for their race, sex, gender, sexual orientation, and socioeconomic status.
+Springfield Public Schools responded to Rufo's Twitter thread, saying it was full of "recycled allegations."
+Missouri attorney general Eric Schmitt launched an investigation into Springfield Public Schools regarding the equity program and said that investigation would be expanded following Rufo's revelations about the gender-related training.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['district', 'rufos', 'labeled', 'told', 'fox', 'schools', 'school', 'missouri', 'gender', 'universe', 'springfield', 'public', 'theory', 'training', 'trainingprogram', 'teachers']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.foxnews.com/media/missouri-school-district-labeled-gender-universe-training-program</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>www.foxnews.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Victor Davis Hanson explains how we can fix K-12 education in America</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Fox News Staff', 'This Article Was Written Fox News Staff.']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>08-25-2022</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hoover Institution senior fellow Victor Davis Hanson proposed solutions for K-12 education in the United States Thursday on "Jesse Watters Primetime" to avoid being "brainwashed" by the public school system.
+VICTOR DAVIS HANSON: We could solve K-12 if we told every teacher, "You have an alternative. You can either go through the education school monopoly and get credentialed and get brainwashed, or just go get an M.A. in an academic subject like a community college teacher or a prep school." And I think there would be a mass exodus out of the school of education. And they couldn't control all of these M.A. programs, and the teachers would be much more academically rigorous.
+WHAT IS CRITICAL RACE THEORY?
+We could tell every student getting a B.A.: You have to take a national — just like an SAT test to get in — take one to see how you do, if you do any better after four years. And that would quantify the B.A. so that we'd all know that B.A.s had something in common — basic knowledge of math. We need to look at tenure. It's the only profession in America where you get lifetime employment after six years. They can have revolving contracts.
+CLICK HERE TO DOWNLOAD THE FOX NEWS APP
+WATCH THE FULL INTERVIEW BELOW:</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hoover Institution senior fellow Victor Davis Hanson proposed solutions for K-12 education in the United States Thursday on "Jesse Watters Primetime" to avoid being "brainwashed" by the public school system.
+VICTOR DAVIS HANSON: We could solve K-12 if we told every teacher, "You have an alternative.
+You can either go through the education school monopoly and get credentialed and get brainwashed, or just go get an M.A.
+in an academic subject like a community college teacher or a prep school."
+And I think there would be a mass exodus out of the school of education.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['davis', 'brainwashed', 'fix', 'teacher', 'school', 'explains', 'hanson', 'ma', 'watters', 'america', 'ba', 'victor', 'k12', 'education']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://www.foxnews.com/media/victor-davis-hanson-explains-fix-k-12-education-america</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>www.foxnews.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>What to know about Pell Grants</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Danielle Douglas-Gabriel', 'Danielle Douglas-Gabriel Covers The Economics Of Higher Education', "Writing About The Financial Policies That Determine A Student'S Access To Education", 'Ability To Complete A Credential.']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>08-26-2022</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>President Biden’s student loan forgiveness plan is expected to help up to 43 million borrowers, with recipients of federal Pell Grants set to get the biggest relief.
+The plan will forgive up to $20,000 in federal student loans for borrowers who had received a Pell, a grant program that has helped millions of low-to-moderate income students attend college. Non-Pell recipients can receive up to $10,000 in forgiveness if they made less than $125,000, or under $250,000 for married couples and households.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>President Biden’s student loan forgiveness plan is expected to help up to 43 million borrowers, with recipients of federal Pell Grants set to get the biggest relief.
+The plan will forgive up to $20,000 in federal student loans for borrowers who had received a Pell, a grant program that has helped millions of low-to-moderate income students attend college.
+Non-Pell recipients can receive up to $10,000 in forgiveness if they made less than $125,000, or under $250,000 for married couples and households.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['grants', 'plan', 'forgiveness', 'borrowers', 'recipients', 'students', 'reliefthe', 'student', 'set', 'pell', 'know', 'federal']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://www.washingtonpost.com/education/2022/08/26/what-is-pell-grant/</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>www.washingtonpost.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Is the United States headed for civil war?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Marc Fisher', 'A Senior Editor', 'Writes About Most Anything. He Has Been The Washington Post S Enterprise Editor', 'Local Columnist', 'Berlin Bureau Chief', 'He Has Covered Politics', 'Education', 'Pop Culture', 'Much Else In Three Decades On The Metro', 'Style']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>08-26-2022</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Outlook Is the United States headed for civil war? Fighting words and extremism are on the rise. We are not yet in ‘Turner Diaries’ territory, but that doesn’t mean the country will avoid violent conflict. John W. Tomac for The Washington Post
+Listen 15 min Comment on this story Comment Gift Article Share
+It’s easy and logical to conclude that the United States today stands as close to the edge of civil war as it has since 1861. A broad variety of voices — including Republican and Democratic politicians, academics who study civil strife, and extremists on both ends of the spectrum — now accept the idea that civil war is either imminent or necessary. They point to evidence that can seem persuasive: a blizzard of threats against FBI agents, judges, elected officials, school board members and elections supervisors; training camps where heavily armed radicals practice to confront their own government; and polls showing that many Americans expect violent conflict.
+But it’s also easy and logical to conclude that the florid rhetoric from right-wing extremists, the worried warnings in mainstream media, and the hail of threats and individual attacks after this month’s surprise FBI search of Donald Trump’s South Florida mansion add up to something well short of the frightening prospect of civil war.
+Advertisement
+Story continues below advertisement
+People who track such threats say this summer’s violent outbursts against federal officials and government institutions amount to one more concerning surge of rage in a pattern that has persisted throughout the pandemic, spiking after the murder of George Floyd two summers ago. But the Anti-Defamation League and other watchdog groups are not seeing the kind of specific planning by private militias and online assemblages of radicals that was evident before last year’s Jan. 6 insurrection and the white-supremacist march in Charlottesville in 2017.
+“We are living in a country where disinformation, conspiracy thinking and lies have resulted in deadly attacks,” said Oren Segal, vice president of the ADL’s Center on Extremism. “It’s not exactly kumbaya in this society. But we have been going through this for a long time now, and I don’t see people coming together in the more coherent organizing we saw prior to Jan. 6.”
+Contrast that perspective with that of Stephen Marche, author of “The Next Civil War: Dispatches From the American Future,” who posits that as extremists’ threats have become more lurid and specific, their rhetoric has leached into the mainstream — leading, for example, the Texas state government to spell out instances in which it would defy federal authority and the Texas Republican Party to declare President Biden the “acting president” and seek a voter referendum on seceding from the United States.
+When he sees small groups of armed men training for combat against government agents, Marche, a Canadian novelist, wants to ring warning bells. “The alarm is getting much more serious, and it’s accelerating very quickly,” he said. “The kind of chaos I’m describing is like internet rage: You could take it as playacting or it could be deadly serious. It could be weekend fun or actual military preparation.” He, along with some other analysts on the left, right and in between, thinks the current noise is a strong indicator that a hot civil war — one likely to feature bombings, assassinations and other assaults on federal institutions and officials — may be imminent.
+This split over how seriously to take the threat of civil war is not just another example of America’s deep divisions: It has the great benefit of existing on a foundation of shared facts. Both sets of analysts — those who say we’re heading toward civil strife and those who say the threat matrix is largely limited to lone rangers and small, disorganized groups whose dangerous but scattered acts don’t constitute a civil war — agree there is little chance of an organized, violent attack on the government, or of local or state authorities taking up arms against their federal counterparts. But there remains a sharp divide over whether a mounting series of individual and small-group attacks could add up to a warlike conflict that destabilizes the country.
+Advertisement
+Story continues below advertisement
+What both sides in the civil war debate do agree on is that a more disturbing trend — at this point more dangerous than the sporadic bursts of violence in recent years — is the pervasive loss of trust, hope and sense of belonging in a severely damaged society.
+And both sides agree we have been here before.
+A quarter-century ago, after the bombing of the Oklahoma City federal building, I interviewed William Pierce, the physics professor turned neo-Nazi organizer whose novel “The Turner Diaries” had been taken by the bomber, Timothy McVeigh, as a planning document for launching civil war. In the book, white supremacists conspire to bomb FBI headquarters and spark a wider war against the government. McVeigh had excerpts from the book in his getaway car when he killed 168 people and injured hundreds more.
+Pierce, a provocateur who took great pride in his book’s popularity among white supremacists and other extremists, told me that his aim — and that of those he hoped would read his book — was to overthrow the government and rid the country of Jews and Blacks.
+“People don’t use the book as a blueprint, but as inspiration,” Pierce told me. “I don’t have the time to write just for entertainment. It’s to explain things to people. I’d like to see North America become a white continent.” He wrote that “if we don’t destroy the System before it destroys us — if we don’t cut this cancer out of our living flesh — our whole race will die.”
+Advertisement
+Story continues below advertisement
+Pierce, who died in 2002, told me he expected individual violent acts inspired by his book to become more frequent. “Terrorism only makes sense if it can be sustained,” he said. “One day, there will be real, organized terrorism done according to plan, aimed at bringing down the government.”
+For several decades, “The Turner Diaries” has remained a go-to text for violent extremists, showing up frequently in online chatter by participants in and supporters of the Jan. 6 attack. In the meantime, the internet has blossomed into a far more insidiously efficient tool for those who seek to foment discord and terrorism. Yet although Pierce’s work still inspires single actors and small groups, his wider war has never come close to fruition.
+***
+Today, “civil war” is a rallying cry that some Americans wear on T-shirts and others openly train for with assault weapons. Since the Mar-a-Lago search on Aug. 8, “lock and load” and “civil war” have trended on pro-Trump social media such as Gab and Telegram.
+Belligerent rhetoric has also become part of everyday campaigning among some Republicans. A GOP candidate in Florida’s 11th House District, Laura Loomer, who narrowly lost her primary Tuesday, wrote on Telegram on Aug. 8 that it’s “time to take the gloves off. … If you’re a freedom loving American, you must remove the Words decorum and civility from your vocabulary. This is a WAR!” Conservative YouTuber and podcaster Steven Crowder tweeted on the day of the FBI’s descent on Mar-a-Lago that “tomorrow is war.” “It’s time to fight for every square inch,” he reiterated the next day. “It’s time to fight fire with fire.” The pro-Trump Gateway Pundit site wrote “This. Means. War.” On various pro-Trump social media platforms, people talked about buying ammunition and drilling for confrontation with federal agents. “Civil war! Pick up arms, people,” one agitated person tweeted.
+Such talk has been a mainstay of the Trump years. Last summer, Rep. Madison Cawthorn (R-N.C.), an election denier, alleged that U.S. election systems are “rigged,” which he said would “lead to one place, and that’s bloodshed.”
+Advertisement
+Story continues below advertisement
+In a new book, “We’ll Be Back: The Fall and Rise of America,” conservative writer Kurt Schlichter games out a civil war and concludes that blue states face a challenge. “It’s nice to hold cities, but if you do not also hold all the rural territory between the cities, as well as the routes to the places where you are getting your food and fuel,” he wrote, “you have a real problem.”
+Trump himself, speaking against the teaching of critical race theory at a South Carolina rally this spring, said America’s fate “ultimately depends upon the willingness of its citizens to lay down — and they must do this — lay down their very lives to defend their country.”
+One of Trump’s leading critics in his own party, Rep. Adam Kinzinger (Ill.), said early this year on ABC’s “The View” that civil war could erupt. “We have to warn and talk about it so that we can recognize that and fight hard against it,” said Kinzinger, one of two Republicans on the House committee investigating the Jan. 6 attacks.
+But Kinzinger has also warned against embracing civil war rhetoric, tweeting in May: “How bout we stop the ‘civil war’ lust. Buy some GI Joes or something.”
+In a nation where firearms purchases have almost doubled since the start of the pandemic — driven mainly by fears of rising crime, political unrest and the insecurity of life in the age of covid-19 — appeals like Kinzinger’s have fallen all too flat.
+When the Rev. Sun Myung Moon sought to win Americans to his political and spiritual cause, the Unification Church, in the 1970s, he recruited people to sell flowers and ginseng door-to-door. Now, his son Hyung Jin Moon seeks to win followers for his Rod of Iron Ministries by sponsoring training sessions at his compounds in Texas and Pennsylvania — practice, he says, for a coming “patriots’” war against the “deep state.”
+The Moons’ churches are both fringe groups, but Hyung Jin’s organization has hosted Trump’s former chief strategist Steve Bannon and current Pennsylvania Republican gubernatorial candidate Doug Mastriano at its “Freedom Festival” events.
+Moon’s group is one of the many radical organizations that are increasingly open about their plans. A Brookings Institution study tracked several hundred private militia groups that use anti-government rhetoric to attract Americans worried “about changing demographics, stagnating wages, and how the shift to a multi-racial and multi-ethnic America will affect them.”
+But such groups remain disparate and disjointed.
+Advertisement
+Story continues below advertisement
+Many activists who have called for confrontation with the government now claim they meant no such thing; they have flipped the accusation, saying leftists or government agents are out to smash conservative opposition by kindling fear of a civil war launched by right-wingers. Crowder, the YouTube host, called media reports about his tweets an intentional smear.
+“Decrying the weaponization of a once-professional FBI, and the scandals among its wayward Washington hierarchy is not insurrectionary,” Victor Davis Hanson, a fellow at Stanford’s Hoover Institution, wrote in American Greatness, an online journal generally supportive of Trump. “Those who warn most of some mythical civil war are those most likely to incite one.”
+Does all the noise add up only to vigorous opposition to the government, or is it evidence of concerted preparation for open warfare? The answer depends in part on what you think modern civil war would look like: Would large militias attack government institutions, or would a war be limited to haphazard acts by individuals and small guerrilla factions?
+Some say a war of sorts has begun: “The second American civil war is already occurring,” Robert Reich, labor secretary under President Bill Clinton, declared in the Guardian. “But it is less of a war than a kind of benign separation analogous to unhappily married people who don’t want to go through the trauma of a formal divorce.”
+Advertisement
+Story continues below advertisement
+Reich foresees not a violent division of the country but rather something “analogous to Brexit — a lumbering, mutual decision to go separate ways on most things but remain connected on a few big things (such as national defense, monetary policy and civil and political rights).”
+Still, many Americans believe that a true, violent civil war is coming. About half of those surveyed this spring by the University of California at Davis’s Violence Prevention Research Program said they expected civil war in the next few years. Another poll, by the Survey Center on American Life, a nonpartisan project affiliated with the conservative American Enterprise Institute, found more than one-third of Americans agreeing that “the traditional American way of life is disappearing so fast that we may have to use force to save it.”
+***
+Groups seeking to battle the government have popped up regularly throughout American history.
+To determine when such movements around the world have exploded into real civil wars, Barbara Walter, a political scientist at the University of California at San Diego and the author of “How Civil Wars Start: And How to Stop Them,” points to two predictive factors: Countries stuck in an unstable zone between democracy and autocracy are more susceptible to armed conflict. And countries with weakened governments and a population deeply divided by identity — by race, ethnicity or religion — can fall into civil war. Walter sees the Republican Party embracing an “almost white supremacist strategy” that attracts far-right activists eager to fight the federal government.
+But other scholars look at the same evidence and see the potential for violence stabilizing or diminishing. Juliette Kayyem, who heads the homeland security program at Harvard’s Kennedy School of Government, argues that violent movements either grow or shrink. As Trump increasingly looks to his supporters like a loser, she sees them wandering away. The “ideology is not defeated; it simply stops motivating people to action,” she wrote in the Atlantic this month.
+Advertisement
+Story continues below advertisement
+The rhetoric of war is vastly more common than war itself. Violent and dark language has been at the core of Trump’s appeal for many years. Trump’s choice for governor of Arizona, former TV news anchor Kari Lake, for instance, tells crowds that the government is “rotten to the core,” meaning “America is dead.”
+That kind of end-times speech strikes some disturbed or radicalized people as an invitation to uprising. But historians and security analysts who’ve studied the latest evidence of civil war planning mainly foresee the kinds of scattered terrorism that the country experienced in the late 1960s and early 1970s, not anything like the buildup to 1860.
+Marche has dug into prepper conferences, far-right gatherings and the darkest of online rabbit holes, trying to discern whether their war plans are “weekend fun or actual military preparations. It’s hard to distinguish the fantasists from the people who actually are going to do it,” he said in an interview. In the end, he pronounces himself “really scared.”
+No one would call the strife of the 1960s civil war, but “there was enormous violence in that time,” Marche said. “One hundred and forty cities burned, and that’s in a time when you still had a level of institutional trust that could mitigate the violence.”
+Now, however, collapsed trust in institutions such as the police, news media, churches and government makes the country more vulnerable to internal attack, he argues. Add this year’s Supreme Court decision on abortion rights, and “you now have another situation like in 1860 where you have two legal statuses of people in different parts of the country, and it just can’t hold,” he said.
+Still, Marche notes that “America changes all the time. Reinvention is in the absolute DNA of the country.”
+Segal, who tracks extremism for the ADL, sees this month’s burst of war threats as one more sign that “the system is ripe for targeting,” with the FBI now the focus of violent rhetoric and attacks, like school boards, election workers and medical professionals before it. This may not trigger a wider rash of violence, but the danger has not passed. “Based on what happens in the November elections, extremists will adjust and find a boogeyman,” he said.
+Segal retains hope that holding the Jan. 6 perpetrators to account and investigating Trump’s role in fomenting that attack “will somehow round the edges of the situation.”
+It’s hard to see a civil war emerging from the current mess, but as Segal said, “I’m more concerned about what we can’t see.”
+GiftOutline Gift Article</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Outlook Is the United States headed for civil war?
+***Today, “civil war” is a rallying cry that some Americans wear on T-shirts and others openly train for with assault weapons.
+“Civil war!
+But Kinzinger has also warned against embracing civil war rhetoric, tweeting in May: “How bout we stop the ‘civil war’ lust.
+Some say a war of sorts has begun: “The second American civil war is already occurring,” Robert Reich, labor secretary under President Bill Clinton, declared in the Guardian.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['continues', 'headed', 'groups', 'country', 'states', 'dont', 'rhetoric', 'violent', 'american', 'federal', 'war', 'civil', 'united']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.washingtonpost.com/outlook/2022/08/26/civil-war-mar-a-lago-violent-extremism/</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>www.washingtonpost.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Where to see art gallery shows in the Washington region</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Mark Jenkins']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>08-26-2022</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Listen 6 min Comment on this story Comment Gift Article Share
+The title of Artechouse’s current attraction, “Ase: Afro Frequencies,” is derived from the Yoruban word “ase” (pronounced “ah-shay”), which refers to the power to effect change. Change, of course, is fundamental to Artechouse, a showcase for immersive video projections that evolve, mutate and cycle in ceaseless motion. First presented last year at the digital-arts venue’s Miami location, “Ase” ventures breathlessly into Afrofuturism, a movement defined by critic Mark Dery in 1993 but reaching back at least as far as 1970s jazz and funk.
+Generated by Artechouse’s skilled technicians, “Ase” is derived from the visual work of Vince Fraser, a London digital illustrator. The soundtrack is based on African drumming and incorporates spoken-word poetry by Philadelphia’s Ursula Rucker, who is known for collaborations with the band the Roots. The results resemble a psychedelic, non-narrative equivalent of “Black Panther,” the comic-book movie that sought to combine African tradition with global high-tech.
+Among the show’s principal motifs is the African mask, once used for ritual purposes across much of the continent. These appear as contoured 3D sculptures, illuminated with ever-shifting lights, as well as in many virtual versions. The latter are arranged into kaleidoscopic patterns in the main room’s swirling, gold-heavy digital montage, or meld with visitors’ faces in interactive displays in one of the smaller galleries. Mirrored walls and floors glimmering with projected images also blur the distinction between viewer and viewed.
+Advertisement
+Story continues below advertisement
+This is hardly new territory for Artechouse, whose wall-to-wall exhibitions are always designed to bathe people in light and sound. But this show invokes cultures that are little known in the West, even to many descendants of the people who created them. “Ase: Afro Frequencies” is far too flashy, jumpy and glitzy to function as a history lesson. But it does have historical resonance.
+Ase: Afro Frequencies Through Nov. 13 at Artechouse, 1238 Maryland Ave. SW.
+Washington Landscapes
+One of the Bernard Dellario gouaches on display at Amy Kaslow Gallery is titled “Cutting Through,” which would be an apt alternate title for the local-artist show called simply “Washington Landscapes.” Both Dellario and pen-and-artist Brandon McDonald blaze paths — for the eye, if not the foot — through the surprisingly serene wilderness near downtown D.C.
+Advertisement
+Story continues below advertisement
+Many of Dellario’s gently impressionistic pictures depict Rock Creek as it dawdles through and around large, glistening rocks. The meandering channels carved by the stream are complemented by the indirect routes taken by sunlight that’s bent and diffused by foliage. More open compositions such as “Inlet” neatly mirror sky and water, but Dellario seems most at home under tree cover, where light dapples rather than glares.
+McDonald’s detailed black-and-white drawings depict dry land, although sometimes buried in snow. While a hiking trail is often the centerpiece of his pictures, the walkway may be off-center, curving or barely visible. A few drawings rhyme with Dellario’s paintings: “Vibrations” foregrounds a rocky waterway, and “Up &amp; Away” stripes a path with tree shadows. As in Dellario’s pictures, there’s a sense of motion, but not necessarily in a forward direction.
+A more pointed view of local geography distinguishes the lone work by the show’s third contributor, Andrea Limauro. The Italian-bred artist gazes into the future at a Lincoln Memorial whose environs have become tropical. Rendered in a partly pointillist style, the painting shows the landmark framed by palm trees and messily overgrown with greenery. Where Dellario and McDonald view nature as a respite, Limauro foresees it as a potential threat to Washington’s neoclassical order.
+Washington Landscapes Through Sept. 11 at Amy Kaslow Gallery, 4300 Fordham Rd. NW.
+Sarah Hardesty
+They’re clearly landscapes, but Sarah Hardesty’s artworks don’t depict a particular place. Viewers of her “Time Binding” won’t be surprised, though, to learn that she was born in Maine. Now a resident artist at Arlington Arts Center, Hardesty makes stark, abstracted views of the sort of rocky outcroppings common in northern New England. The hard-worked surfaces of the mostly black-and-white painting-drawings demonstrate that the artist’s hand can be as abrasive as the water, wind and grit that shape stone over millennia.
+Hardesty acknowledges the man-made world with color, notably the orange used for space suits and warning signs. That garish hue appears in small touches throughout the artist’s work, notably in a construction made of found branches in which shorter, orange-painted lengths are tied to a longer, unpainted one. There’s also a floor-level arrangement of found rocks coated with chrome vinyl so they resemble both miniature mountain peaks and auto parts. Silvery tones appear to be intrinsic, yet have an unnatural quality, in a close-up video of gently rippling water. Like Hardesty’s paintings, the video depicts natural forms that are both utterly primal and artfully stylized.
+Sarah Hardesty: Time Binding Through Sept. 4 at Arlington Arts Center, 3550 Wilson Blvd., Arlington.
+Conversations in Color
+Excited fuchsias and calming blues are among the hues engaged in “Conversations in Color,” a four-woman show at Martha Spak Gallery. All the participants draw from cubism and abstract expressionism, but jumble such precedents in lively ways. They sometimes incorporate representational elements, and occasionally disrupt the overwhelmingly flat imagery with illusions of depth. Atypical, yet somehow characteristic, is an Octavia Frazier still life in which one-dimensional blocks of colors abut renderings of fruit that are modeled to simulate roundness.
+The artworks are all paintings, but some feature collaged bits. Their titles often refer to nature, although such inspirations are not always literally visible. Tidiest are Kay Walsh’s abstractions, whose forms are mostly rounded but often hard-edged. Marthe McGrath and Jennifer Duncan array pigment more loosely, evoking the natural world with rich greens (in one of McGrath’s pictures) or literal leaves or trees (in two of Duncan’s). Yet all four artists share a taste for hot oranges and pinks that make their visual chatter bold and scintillating.
+Conversations in Color Through Sept. 6 at Martha Spak Gallery, 40 District Square SW.
+GiftOutline Gift Article</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Among the show’s principal motifs is the African mask, once used for ritual purposes across much of the continent.
+A more pointed view of local geography distinguishes the lone work by the show’s third contributor, Andrea Limauro.
+Rendered in a partly pointillist style, the painting shows the landmark framed by palm trees and messily overgrown with greenery.
+Washington Landscapes Through Sept. 11 at Amy Kaslow Gallery, 4300 Fordham Rd.
+Conversations in Color Through Sept. 6 at Martha Spak Gallery, 40 District Square SW.GiftOutline Gift Article</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['work', 'ase', 'gallery', 'region', 'sept', 'art', 'video', 'pictures', 'paintings', 'shows', 'washington', 'water', 'dellario']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.washingtonpost.com/arts-entertainment/2022/08/26/art-gallery-shows-dc-area/</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>www.washingtonpost.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>American University reaches tentative agreement with striking workers</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Susan Svrluga']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>08-26-2022</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Listen 5 min Comment on this story Comment Gift Article Share
+A union representing staff at American University reached a tentative labor deal with the school on Friday, ending a week-long strike that disrupted the start of the academic year. AU President Sylvia Mathews Burwell thanked the campus community for its resilience during a challenging week in a statement about the agreement, which was pending a vote by the union.
+The union celebrated the deal.
+“Today’s outcome is a tremendous victory for all of us who took the risk out on the picket line,” said Roshan Abraham, a first-year adviser, in a statement released by the union. “I am proud to have stood arm-in-arm with my colleagues over the past few days. The gains we have made through the agreement are life-changing.”
+Story continues below advertisement
+The day began with a dramatic moment, as hundreds of first-year students walked out of a convocation ceremony just before the president spoke and joined workers demonstrating on the campus in Northwest Washington.
+Advertisement
+The group marched to the president’s office and chanted on the lawn. Many in the crowd wore purple T-shirts in support of the union. “Shame on Sylvia!” some shouted.
+The strike has made for a highly unusual start to the school year at American. Move-in days are typically carefully choreographed, joyful events to welcome new students to the fall semester. But this year, a giant inflated rat — a symbol used often during labor strikes — loomed at one side of the campus gates alongside protesters handing out fliers about tuition and staff salaries. Some parents had to wait in lines of cars to help their kids move into dorms.
+Story continues below advertisement
+And new students, most leaving home for the first time in their lives, were confronted with the choice of whether to remain at their own welcoming ceremony.
+A union representing AU clerical, technical and academic staff members went on strike Monday after negotiations to reach a labor agreement with the university failed. Staff members asked for increased wages and better benefits.
+The union and university resumed labor contract negotiations Friday.
+Advertisement
+“We respect the rights of our community members to strike and to voice their opinions,” a university spokesman said in a statement earlier in the day. “As President Burwell said in her Convocation remarks, these situations are examples of how important it is to not only have passion, but also to listen to all sides, consider the facts, and think through impacts.”
+Story continues below advertisement
+Full details of the tentative labor deal were not immediately available.
+The workers had asked the university to ensure that no full-time staff member earns less than $40,000 a year, and to provide a 5 percent raise in the first year of the contract followed by a 4 percent increase the next year. They also wanted to ensure annual raises to part-time staff members.
+The university had in turn offered a 2.5 percent increase and a 1.5 percent performance pay bump this year — which school officials said was in line with what it had provided to other faculty and staff — as well as other increases to reduce salary disparities and a proposal to eliminate the lowest levels of the tiered pay system.
+Advertisement
+Story continues below advertisement
+Union members rejected that offer, and brought the fight onto campus at an emotionally charged time as students launch into college life.
+For some incoming freshmen, it was an unexpected but exciting introduction to a new life in Washington, a city infused with politics. For others it was confusing and distressing.
+“I’m shocked and upset,” said Laurita Wong, who had just arrived after many long hours of travel from Hong Kong, when the ceremony was interrupted. Her roommate Ardere Tian, who is from China, nodded and echoed her words.
+“It is not a good way to start,” Wong said.
+Some people reported lines of traffic Wednesday, with frustrated and distraught parents — already emotional about bringing a child to college — stuck in their vehicles.
+Story continues below advertisement
+Others said the move-in went smoothly despite the strike, praising the streamlined system and friendly volunteers greeting families. The university pays professional movers to help students.
+Advertisement
+On Friday, as parents and new students unloaded dorm supplies from cars, protesters pumped signs and shouted slogans such as, “We love our students! We need fair pay!”
+“It shows we’re a school that’s very politically active,” said Scarlett Wedergren, a 20-year-old junior from Omaha.
+Matthew Bennett, the university spokesman, said that move-in events continued all week, with more than 4,000 students settling onto campus. He said the convocation ceremony continued as planned, with Burwell and other speakers giving their full remarks, along with the sounds of the school’s traditional bagpipes.
+Story continues below advertisement
+Some students estimated that well over half of the students walked out of convocation.
+Freshmen Caitlyn Holmstedt, Nina Samel and Kate Travis joined the protest, and talked about staff salaries afterward. “The school could have prevented this,” said Holmstedt, 18, of Rhode Island.
+Advertisement
+She admired the inflated rat billowing alongside Massachusetts Avenue: “I want to get that for my room!”
+Bennett Lane, an 18-year-old from Denver, said he just got to campus Thursday, but he walked out of the convocation. “I support faculty, and I support unions,” Lane said.
+He was expecting life in Washington to be intense, but the sudden immersion surprised him: “I didn’t expect to be in it so quickly.”
+GiftOutline Gift Article</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A union representing AU clerical, technical and academic staff members went on strike Monday after negotiations to reach a labor agreement with the university failed.
+Staff members asked for increased wages and better benefits.
+The union and university resumed labor contract negotiations Friday.
+They also wanted to ensure annual raises to part-time staff members.
+Matthew Bennett, the university spokesman, said that move-in events continued all week, with more than 4,000 students settling onto campus.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['continues', 'agreement', 'university', 'strike', 'members', 'american', 'tentative', 'workers', 'union', 'school', 'students', 'staff', 'striking', 'labor', 'reaches', 'campus']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.washingtonpost.com/education/2022/08/26/american-university-strike-staff/</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>www.washingtonpost.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Oklahoma state board affirms decision to downgrade accreditation for 2 school districts over violating law on race and gender teaching</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Aya Elamroussi Andy Rose', 'Aya Elamroussi', 'Andy Rose']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>08-27-2022</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CNN —
+Two school districts in Oklahoma will remain under a downgraded accreditation status after they were accused of violating a state law that bars certain types of teachings on race and gender, despite educators’ calls on Thursday to lift the punishment they say is hurting teachers and students.
+The Oklahoma State Board of Education reaffirmed a 4-2 vote on July 28 designating the Tulsa Public Schools and Mustang Public Schools districts as “accredited with warning.”
+The reduction means the districts are two tiers away from losing accreditation altogether.
+Ad Feedback
+“We are disappointed that the Oklahoma State Board of Education determined – without any discussion – to not even consider Tulsa Public Schools’ request that it reevaluate the egregious and baseless action it took on our district’s accreditation status in July,” Tulsa superintendent Deborah Gist said in a written statement following the vote.
+The law at the heart of the matter is House Bill 1775, which was passed and signed by Gov. Kevin Stitt in May 2021.
+It prohibits, in part, teachers and other staff from teaching courses that indicate one race or gender is inherently superior to another. It also bars teaching the idea that a person of specific race or gender “bears responsibility for actions committed in the past by other members of the same race or sex,” according to the bill’s text.
+The Oklahoma bill does not mention “critical race theory,” but it emerged amid a contentious debate raging in many school districts over how the subjects of inequality and racism should be taught in American schools.
+The alleged violations
+The downgrade for Tulsa was in response to a complaint filed by a teacher who claimed she was required to watch training videos that “specifically shame white people for past offenses in history, and state that all are implicitly racially biased by nature.”
+That accusation was challenged Thursday when the school district said the training session in question was about the subject of implicit bias and did not indicate White people are inherently racist. “The law does not prohibit the concept of implicit bias,” Gist said at the meeting.
+In the case of the Mustang Public Schools, a teacher in January conducted a “cross the line” activity in an effort to “foster a sense of belonging and empathy amongst students in a Leadership class,” the district said in a statement last month.
+“Cross the Line activities originated from the anti-bullying space and were meant to help students to develop the understanding that everyone has something that they deal with and to empathize with and not bully or tease others,” the district said. “Unfortunately, the activity that was chosen in this instance was one that was adapted from and focused on topics not appropriate for our students.”
+The district responded by eliminating the activity immediately, it said.
+On Thursday, superintendent Charles Bradley told the state school board the downgrade decision was uninformed as the district had handled the issue appropriately at the local level to “everyone’s satisfaction.”
+“This was an isolated event by one teacher and quickly resolved,” Bradley said. “Due process will allow this board to look at the facts and make an informed decision that accreditation with warning is not warranted in this situation.”
+The Mustang school district is based in Oklahoma City.
+Several people representing Mustang and Tulsa school districts implored the state board to reconsider its decision.
+“We are fearful to think that a teacher at another site, who was just trying to teach an activity over empathy, who made a mistake, is in danger of losing his job, of losing his certification, of contributing to Mustang Public Schools losing their accreditation,” Mustang High School principal Kathy Knowles said. “That is scary.”
+In October of 2021, a group of students and educators filed a complaint challenging the Oklahoma law that restricts teaching about race and gender, in what the American Civil Liberties Union called the first federal lawsuit to challenge such a statewide ban.
+The suit – backed by the ACLU, the Lawyers’ Committee for Civil Rights Under Law, the Oklahoma state conference of the NAACP and the American Indian Movement Indian Territory – sought to block enforcement of the law it says inhibits free speech and education of complete history through the framework of critical race theory.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CNN —Two school districts in Oklahoma will remain under a downgraded accreditation status after they were accused of violating a state law that bars certain types of teachings on race and gender, despite educators’ calls on Thursday to lift the punishment they say is hurting teachers and students.
+The Oklahoma State Board of Education reaffirmed a 4-2 vote on July 28 designating the Tulsa Public Schools and Mustang Public Schools districts as “accredited with warning.”The reduction means the districts are two tiers away from losing accreditation altogether.
+It prohibits, in part, teachers and other staff from teaching courses that indicate one race or gender is inherently superior to another.
+“Due process will allow this board to look at the facts and make an informed decision that accreditation with warning is not warranted in this situation.”The Mustang school district is based in Oklahoma City.
+Several people representing Mustang and Tulsa school districts implored the state board to reconsider its decision.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['violating', 'district', 'law', 'schools', 'districts', 'school', 'oklahoma', 'teaching', 'gender', 'mustang', 'race', 'tulsa', 'state', 'downgrade']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2022/08/27/us/crt-oklahoma-schools-accreditation-downgraded-reaj/index.html</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>www.cnn.com</t>
         </is>
       </c>
     </row>
